--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1874430.931873042</v>
+        <v>1873649.806435647</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24203.64631927793</v>
+        <v>24203.64631927792</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5861254.614325495</v>
+        <v>5861254.614325494</v>
       </c>
     </row>
     <row r="11">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
         <v>41.31500304752735</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>41.31500304752735</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426168</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15.18661160257985</v>
       </c>
     </row>
     <row r="8">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>41.31500304752735</v>
@@ -1229,50 +1229,50 @@
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="G10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="H10" t="n">
-        <v>36.39025468426209</v>
       </c>
       <c r="I10" t="n">
         <v>41.31500304752735</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>416.396466152254</v>
+        <v>416.3964661522539</v>
       </c>
       <c r="C11" t="n">
         <v>428.1209394606062</v>
@@ -1378,16 +1378,16 @@
         <v>425.9105783494952</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7968887654831</v>
+        <v>423.796888765483</v>
       </c>
       <c r="F11" t="n">
         <v>417.9486466670796</v>
       </c>
       <c r="G11" t="n">
-        <v>391.2214998695454</v>
+        <v>391.2214998695453</v>
       </c>
       <c r="H11" t="n">
-        <v>275.2503072257688</v>
+        <v>275.2503072257687</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.27459841116075</v>
+        <v>65.27459841116074</v>
       </c>
       <c r="T11" t="n">
         <v>209.9403206418912</v>
@@ -1435,10 +1435,10 @@
         <v>395.1667914152723</v>
       </c>
       <c r="X11" t="n">
-        <v>409.3109301586777</v>
+        <v>409.3109301586776</v>
       </c>
       <c r="Y11" t="n">
-        <v>398.5631538355384</v>
+        <v>398.5631538355383</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>184.2603239039925</v>
       </c>
       <c r="C13" t="n">
-        <v>165.1959857738028</v>
+        <v>165.1959857738026</v>
       </c>
       <c r="D13" t="n">
         <v>158.5791042426878</v>
@@ -1548,7 +1548,7 @@
         <v>130.7802512778671</v>
       </c>
       <c r="I13" t="n">
-        <v>75.08837594972861</v>
+        <v>75.0883759497286</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.030311038130044</v>
+        <v>5.030311038130703</v>
       </c>
       <c r="S13" t="n">
         <v>147.9263172145164</v>
@@ -1584,16 +1584,16 @@
         <v>236.7796102511984</v>
       </c>
       <c r="U13" t="n">
-        <v>269.995784242536</v>
+        <v>269.9957842425359</v>
       </c>
       <c r="V13" t="n">
         <v>278.4458444204691</v>
       </c>
       <c r="W13" t="n">
-        <v>263.6660317417667</v>
+        <v>263.6660317417666</v>
       </c>
       <c r="X13" t="n">
-        <v>237.297728492117</v>
+        <v>237.2977284921169</v>
       </c>
       <c r="Y13" t="n">
         <v>219.5053653512281</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>416.396466152254</v>
+        <v>416.3964661522539</v>
       </c>
       <c r="C14" t="n">
         <v>428.1209394606062</v>
@@ -1615,16 +1615,16 @@
         <v>425.9105783494952</v>
       </c>
       <c r="E14" t="n">
-        <v>423.7968887654831</v>
+        <v>423.796888765483</v>
       </c>
       <c r="F14" t="n">
         <v>417.9486466670796</v>
       </c>
       <c r="G14" t="n">
-        <v>391.2214998695454</v>
+        <v>391.2214998695453</v>
       </c>
       <c r="H14" t="n">
-        <v>275.2503072257688</v>
+        <v>275.2503072257687</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.27459841116075</v>
+        <v>65.27459841116074</v>
       </c>
       <c r="T14" t="n">
         <v>209.9403206418912</v>
@@ -1672,10 +1672,10 @@
         <v>395.1667914152723</v>
       </c>
       <c r="X14" t="n">
-        <v>409.3109301586777</v>
+        <v>409.3109301586776</v>
       </c>
       <c r="Y14" t="n">
-        <v>398.5631538355384</v>
+        <v>398.5631538355383</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>158.0609926634006</v>
       </c>
       <c r="H16" t="n">
-        <v>130.7802512778673</v>
+        <v>130.7802512778671</v>
       </c>
       <c r="I16" t="n">
-        <v>75.08837594972847</v>
+        <v>75.0883759497286</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.030311038130043</v>
+        <v>5.030311038130023</v>
       </c>
       <c r="S16" t="n">
         <v>147.9263172145164</v>
@@ -1821,16 +1821,16 @@
         <v>236.7796102511984</v>
       </c>
       <c r="U16" t="n">
-        <v>269.995784242536</v>
+        <v>269.9957842425359</v>
       </c>
       <c r="V16" t="n">
         <v>278.4458444204691</v>
       </c>
       <c r="W16" t="n">
-        <v>263.6660317417667</v>
+        <v>263.6660317417666</v>
       </c>
       <c r="X16" t="n">
-        <v>237.297728492117</v>
+        <v>237.2977284921169</v>
       </c>
       <c r="Y16" t="n">
         <v>219.5053653512281</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.27459841116075</v>
+        <v>65.2745984111605</v>
       </c>
       <c r="T17" t="n">
         <v>209.9403206418912</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9481914630991</v>
+        <v>250.9481914630992</v>
       </c>
       <c r="V17" t="n">
-        <v>353.3506719377078</v>
+        <v>353.350671937707</v>
       </c>
       <c r="W17" t="n">
         <v>395.1667914152723</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.030311038130253</v>
+        <v>5.030311038130042</v>
       </c>
       <c r="S19" t="n">
         <v>147.9263172145164</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>65.27459841116075</v>
+        <v>65.2745984111605</v>
       </c>
       <c r="T20" t="n">
         <v>209.9403206418912</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9481914631001</v>
+        <v>250.9481914630991</v>
       </c>
       <c r="V20" t="n">
         <v>353.350671937707</v>
@@ -2259,7 +2259,7 @@
         <v>130.7802512778671</v>
       </c>
       <c r="I22" t="n">
-        <v>75.08837594972861</v>
+        <v>75.0883759497285</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.030311038130044</v>
+        <v>5.030311038130042</v>
       </c>
       <c r="S22" t="n">
         <v>147.9263172145164</v>
@@ -2323,7 +2323,7 @@
         <v>428.1209394606062</v>
       </c>
       <c r="D23" t="n">
-        <v>425.910578349496</v>
+        <v>425.9105783494952</v>
       </c>
       <c r="E23" t="n">
         <v>423.7968887654831</v>
@@ -2377,7 +2377,7 @@
         <v>250.9481914630991</v>
       </c>
       <c r="V23" t="n">
-        <v>353.350671937707</v>
+        <v>353.3506719377069</v>
       </c>
       <c r="W23" t="n">
         <v>395.1667914152723</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.030311038130044</v>
+        <v>5.030311038130042</v>
       </c>
       <c r="S25" t="n">
         <v>147.9263172145164</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.91470703896537</v>
+        <v>70.91470703896546</v>
       </c>
       <c r="T26" t="n">
         <v>215.5804292696959</v>
@@ -2730,10 +2730,10 @@
         <v>163.7011012912053</v>
       </c>
       <c r="H28" t="n">
-        <v>136.4203599056718</v>
+        <v>93.35456237537356</v>
       </c>
       <c r="I28" t="n">
-        <v>80.72848457753332</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.67041966593475</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.5664258423211</v>
@@ -2772,7 +2772,7 @@
         <v>275.6358928703407</v>
       </c>
       <c r="V28" t="n">
-        <v>149.6212512745075</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.91470703896537</v>
+        <v>70.91470703896546</v>
       </c>
       <c r="T29" t="n">
-        <v>215.5804292696959</v>
+        <v>215.5804292696963</v>
       </c>
       <c r="U29" t="n">
         <v>256.5883000909041</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.67041966593475</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>19.10172406855489</v>
+        <v>153.5664258423211</v>
       </c>
       <c r="T31" t="n">
         <v>242.4197188790031</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>101.3511918712014</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>215.5804292696954</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5883000909041</v>
+        <v>256.5883000909038</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>40.42493076266106</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>163.7011012912053</v>
       </c>
       <c r="H34" t="n">
-        <v>1.955658131905548</v>
+        <v>136.4203599056718</v>
       </c>
       <c r="I34" t="n">
         <v>80.72848457753332</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.67041966593475</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.5664258423211</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>416.396466152254</v>
+        <v>416.3964661522539</v>
       </c>
       <c r="C35" t="n">
         <v>428.1209394606062</v>
@@ -3274,16 +3274,16 @@
         <v>425.9105783494952</v>
       </c>
       <c r="E35" t="n">
-        <v>423.7968887654831</v>
+        <v>423.796888765483</v>
       </c>
       <c r="F35" t="n">
         <v>417.9486466670796</v>
       </c>
       <c r="G35" t="n">
-        <v>391.2214998695454</v>
+        <v>391.2214998695453</v>
       </c>
       <c r="H35" t="n">
-        <v>275.2503072257688</v>
+        <v>275.2503072257687</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.27459841116074</v>
+        <v>65.27459841116072</v>
       </c>
       <c r="T35" t="n">
         <v>209.9403206418912</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9481914631001</v>
+        <v>250.9481914630992</v>
       </c>
       <c r="V35" t="n">
         <v>353.350671937707</v>
@@ -3331,10 +3331,10 @@
         <v>395.1667914152723</v>
       </c>
       <c r="X35" t="n">
-        <v>409.3109301586777</v>
+        <v>409.3109301586776</v>
       </c>
       <c r="Y35" t="n">
-        <v>398.5631538355384</v>
+        <v>398.5631538355383</v>
       </c>
     </row>
     <row r="36">
@@ -3444,7 +3444,7 @@
         <v>130.7802512778671</v>
       </c>
       <c r="I37" t="n">
-        <v>75.0883759497286</v>
+        <v>75.08837594972859</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.030311038130031</v>
+        <v>5.030311038130021</v>
       </c>
       <c r="S37" t="n">
         <v>147.9263172145164</v>
@@ -3480,13 +3480,13 @@
         <v>236.7796102511984</v>
       </c>
       <c r="U37" t="n">
-        <v>269.995784242536</v>
+        <v>269.9957842425359</v>
       </c>
       <c r="V37" t="n">
         <v>278.4458444204691</v>
       </c>
       <c r="W37" t="n">
-        <v>263.6660317417667</v>
+        <v>263.6660317417666</v>
       </c>
       <c r="X37" t="n">
         <v>237.2977284921169</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>416.396466152254</v>
+        <v>416.3964661522539</v>
       </c>
       <c r="C38" t="n">
-        <v>428.1209394606062</v>
+        <v>428.1209394606064</v>
       </c>
       <c r="D38" t="n">
         <v>425.9105783494952</v>
       </c>
       <c r="E38" t="n">
-        <v>423.7968887654831</v>
+        <v>423.796888765483</v>
       </c>
       <c r="F38" t="n">
         <v>417.9486466670796</v>
       </c>
       <c r="G38" t="n">
-        <v>391.2214998695454</v>
+        <v>391.2214998695453</v>
       </c>
       <c r="H38" t="n">
-        <v>275.2503072257688</v>
+        <v>275.2503072257687</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.27459841116074</v>
+        <v>65.27459841116072</v>
       </c>
       <c r="T38" t="n">
         <v>209.9403206418912</v>
@@ -3562,16 +3562,16 @@
         <v>250.9481914630991</v>
       </c>
       <c r="V38" t="n">
-        <v>353.3506719377078</v>
+        <v>353.350671937707</v>
       </c>
       <c r="W38" t="n">
         <v>395.1667914152723</v>
       </c>
       <c r="X38" t="n">
-        <v>409.3109301586777</v>
+        <v>409.3109301586776</v>
       </c>
       <c r="Y38" t="n">
-        <v>398.5631538355384</v>
+        <v>398.5631538355383</v>
       </c>
     </row>
     <row r="39">
@@ -3681,7 +3681,7 @@
         <v>130.7802512778671</v>
       </c>
       <c r="I40" t="n">
-        <v>75.0883759497286</v>
+        <v>75.08837594972859</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.03031103813003</v>
+        <v>5.030311038130021</v>
       </c>
       <c r="S40" t="n">
         <v>147.9263172145164</v>
@@ -3717,13 +3717,13 @@
         <v>236.7796102511984</v>
       </c>
       <c r="U40" t="n">
-        <v>269.995784242536</v>
+        <v>269.9957842425359</v>
       </c>
       <c r="V40" t="n">
         <v>278.4458444204691</v>
       </c>
       <c r="W40" t="n">
-        <v>263.6660317417667</v>
+        <v>263.6660317417666</v>
       </c>
       <c r="X40" t="n">
         <v>237.2977284921169</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>416.396466152254</v>
+        <v>416.3964661522542</v>
       </c>
       <c r="C41" t="n">
         <v>428.1209394606062</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.27459841116141</v>
+        <v>65.27459841116075</v>
       </c>
       <c r="T41" t="n">
         <v>209.9403206418912</v>
@@ -3918,7 +3918,7 @@
         <v>130.7802512778671</v>
       </c>
       <c r="I43" t="n">
-        <v>75.08837594972863</v>
+        <v>75.08837594972861</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.030311038130058</v>
+        <v>5.030311038130049</v>
       </c>
       <c r="S43" t="n">
         <v>147.9263172145164</v>
@@ -3954,7 +3954,7 @@
         <v>236.7796102511984</v>
       </c>
       <c r="U43" t="n">
-        <v>269.995784242536</v>
+        <v>269.9957842425359</v>
       </c>
       <c r="V43" t="n">
         <v>278.4458444204691</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.27459841116077</v>
+        <v>65.27459841116075</v>
       </c>
       <c r="T44" t="n">
         <v>209.9403206418912</v>
@@ -4039,10 +4039,10 @@
         <v>353.350671937707</v>
       </c>
       <c r="W44" t="n">
-        <v>395.1667914152723</v>
+        <v>395.1667914152724</v>
       </c>
       <c r="X44" t="n">
-        <v>409.3109301586787</v>
+        <v>409.3109301586777</v>
       </c>
       <c r="Y44" t="n">
         <v>398.5631538355384</v>
@@ -4155,7 +4155,7 @@
         <v>130.7802512778671</v>
       </c>
       <c r="I46" t="n">
-        <v>75.08837594972863</v>
+        <v>75.08837594972861</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.030311038130058</v>
+        <v>5.030311038129803</v>
       </c>
       <c r="S46" t="n">
         <v>147.9263172145164</v>
@@ -4191,7 +4191,7 @@
         <v>236.7796102511984</v>
       </c>
       <c r="U46" t="n">
-        <v>269.9957842425359</v>
+        <v>269.995784242536</v>
       </c>
       <c r="V46" t="n">
         <v>278.4458444204691</v>
@@ -4330,16 +4330,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N2" t="n">
         <v>44.20705326085427</v>
@@ -4348,10 +4348,10 @@
         <v>85.10890627790634</v>
       </c>
       <c r="P2" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C3" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D3" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E3" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F3" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M3" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X3" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y3" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H4" t="n">
         <v>45.03752655443588</v>
@@ -4491,49 +4491,49 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L4" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="M4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="N4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P4" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="N4" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O4" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U4" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V4" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W4" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4546,73 +4546,73 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064254</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549112</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419036</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="J5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="K5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="L5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895272</v>
       </c>
       <c r="P5" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.3581591730573</v>
+        <v>124.358159173056</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901076</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901076</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901076</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901076</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W5" t="n">
         <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
-        <v>149.3429022612615</v>
+        <v>149.3429022612614</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.097182601319</v>
+        <v>145.0971826013189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.7698528650686</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.7698528650686</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.7698528650686</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.7698528650686</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.7698528650686</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443538</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="I6" t="n">
-        <v>29.36887340425979</v>
+        <v>29.36887340425975</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>70.27072642131137</v>
       </c>
       <c r="K6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="N6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="O6" t="n">
-        <v>83.45630615600527</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>124.358159173056</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901076</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757018</v>
       </c>
       <c r="T6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757018</v>
       </c>
       <c r="U6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757018</v>
       </c>
       <c r="V6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757018</v>
       </c>
       <c r="W6" t="n">
-        <v>40.06303325820834</v>
+        <v>128.5021791757018</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757018</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757018</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="C7" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="D7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="E7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="F7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="G7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802151</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085377</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085377</v>
       </c>
       <c r="L7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085377</v>
       </c>
       <c r="M7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085377</v>
       </c>
       <c r="N7" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085377</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45630615600527</v>
+        <v>83.45630615600433</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>124.358159173056</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901076</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954795</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848462</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>60.37753827421301</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>60.37753827421301</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>60.37753827421301</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>18.64521196357978</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901094</v>
+        <v>18.64521196357978</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802151</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802236</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="I8" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M8" t="n">
         <v>44.20705326085427</v>
@@ -4819,13 +4819,13 @@
         <v>44.20705326085427</v>
       </c>
       <c r="O8" t="n">
-        <v>83.45630615600527</v>
+        <v>83.45630615600524</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R8" t="n">
         <v>165.2600121901094</v>
@@ -4843,7 +4843,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X8" t="n">
         <v>149.3429022612615</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="N9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="O9" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4919,16 +4919,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H10" t="n">
         <v>45.03752655443588</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1195.584461321601</v>
       </c>
       <c r="F11" t="n">
-        <v>773.4141111528339</v>
+        <v>773.4141111528338</v>
       </c>
       <c r="G11" t="n">
         <v>378.2408789613739</v>
@@ -5041,28 +5041,28 @@
         <v>119.7342656175258</v>
       </c>
       <c r="J11" t="n">
-        <v>163.6158717716933</v>
+        <v>598.8705592246113</v>
       </c>
       <c r="K11" t="n">
-        <v>229.3830242638736</v>
+        <v>1498.98800367497</v>
       </c>
       <c r="L11" t="n">
-        <v>310.9729924598564</v>
+        <v>1580.577971870952</v>
       </c>
       <c r="M11" t="n">
-        <v>1551.075029284749</v>
+        <v>1671.362532192818</v>
       </c>
       <c r="N11" t="n">
-        <v>2769.059562141405</v>
+        <v>2236.600086941938</v>
       </c>
       <c r="O11" t="n">
-        <v>3836.351639426544</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P11" t="n">
-        <v>4375.704530941787</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q11" t="n">
-        <v>4978.035889357482</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R11" t="n">
         <v>5010.513280100577</v>
@@ -5123,25 +5123,25 @@
         <v>486.4922121772164</v>
       </c>
       <c r="K12" t="n">
-        <v>840.0715178103425</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L12" t="n">
-        <v>900.1356785379368</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M12" t="n">
-        <v>970.2277210636032</v>
+        <v>661.3182913118599</v>
       </c>
       <c r="N12" t="n">
-        <v>1042.174891389542</v>
+        <v>733.2654616377989</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.992496217132</v>
+        <v>799.0830664653882</v>
       </c>
       <c r="P12" t="n">
-        <v>1160.816926673813</v>
+        <v>1043.644148579473</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.867598137237</v>
+        <v>1619.694820042897</v>
       </c>
       <c r="R12" t="n">
         <v>1754.042999798884</v>
@@ -5202,16 +5202,16 @@
         <v>208.7702838074643</v>
       </c>
       <c r="K13" t="n">
-        <v>516.0571384596969</v>
+        <v>516.0571384596971</v>
       </c>
       <c r="L13" t="n">
-        <v>974.3306574868792</v>
+        <v>974.3306574868793</v>
       </c>
       <c r="M13" t="n">
         <v>1475.752483653749</v>
       </c>
       <c r="N13" t="n">
-        <v>1959.084822953748</v>
+        <v>1959.084822953749</v>
       </c>
       <c r="O13" t="n">
         <v>2417.118380629135</v>
@@ -5226,22 +5226,22 @@
         <v>2986.373806490227</v>
       </c>
       <c r="S13" t="n">
-        <v>2836.953284051322</v>
+        <v>2836.953284051321</v>
       </c>
       <c r="T13" t="n">
-        <v>2597.781960565263</v>
+        <v>2597.781960565262</v>
       </c>
       <c r="U13" t="n">
-        <v>2325.058946178863</v>
+        <v>2325.058946178862</v>
       </c>
       <c r="V13" t="n">
         <v>2043.800517471318</v>
       </c>
       <c r="W13" t="n">
-        <v>1777.471192479635</v>
+        <v>1777.471192479634</v>
       </c>
       <c r="X13" t="n">
-        <v>1537.776517235072</v>
+        <v>1537.776517235071</v>
       </c>
       <c r="Y13" t="n">
         <v>1316.053925971205</v>
@@ -5257,7 +5257,7 @@
         <v>2486.320225539363</v>
       </c>
       <c r="C14" t="n">
-        <v>2053.874832144812</v>
+        <v>2053.874832144811</v>
       </c>
       <c r="D14" t="n">
         <v>1623.662126741281</v>
@@ -5278,19 +5278,19 @@
         <v>119.7342656175258</v>
       </c>
       <c r="J14" t="n">
-        <v>598.8705592246113</v>
+        <v>163.6158717716933</v>
       </c>
       <c r="K14" t="n">
-        <v>1498.98800367497</v>
+        <v>229.3830242638736</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.577971870952</v>
+        <v>310.9729924598564</v>
       </c>
       <c r="M14" t="n">
-        <v>1671.362532192818</v>
+        <v>1018.615554085282</v>
       </c>
       <c r="N14" t="n">
-        <v>2889.347065049475</v>
+        <v>2236.600086941938</v>
       </c>
       <c r="O14" t="n">
         <v>3303.892164227077</v>
@@ -5320,10 +5320,10 @@
         <v>3722.957144879232</v>
       </c>
       <c r="X14" t="n">
-        <v>3309.511760880568</v>
+        <v>3309.511760880567</v>
       </c>
       <c r="Y14" t="n">
-        <v>2906.922716602247</v>
+        <v>2906.922716602246</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I15" t="n">
-        <v>109.7346300442217</v>
+        <v>135.7983032046793</v>
       </c>
       <c r="J15" t="n">
-        <v>460.4285390167589</v>
+        <v>486.4922121772164</v>
       </c>
       <c r="K15" t="n">
-        <v>505.0984148981414</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L15" t="n">
-        <v>565.1625756257356</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M15" t="n">
-        <v>635.2546181514022</v>
+        <v>661.3182913118599</v>
       </c>
       <c r="N15" t="n">
-        <v>707.2017884773412</v>
+        <v>733.2654616377989</v>
       </c>
       <c r="O15" t="n">
-        <v>773.0193933049305</v>
+        <v>799.0830664653882</v>
       </c>
       <c r="P15" t="n">
-        <v>1645.56699024081</v>
+        <v>1584.383087211549</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.867598137237</v>
+        <v>1619.694820042897</v>
       </c>
       <c r="R15" t="n">
         <v>1754.042999798884</v>
@@ -5418,34 +5418,34 @@
         <v>963.0677545794927</v>
       </c>
       <c r="D16" t="n">
-        <v>802.8868412030403</v>
+        <v>802.8868412030404</v>
       </c>
       <c r="E16" t="n">
-        <v>638.8259168758025</v>
+        <v>638.8259168758026</v>
       </c>
       <c r="F16" t="n">
-        <v>467.8159422595836</v>
+        <v>467.8159422595838</v>
       </c>
       <c r="G16" t="n">
         <v>308.1583739127143</v>
       </c>
       <c r="H16" t="n">
-        <v>176.0571099956767</v>
+        <v>176.0571099956768</v>
       </c>
       <c r="I16" t="n">
         <v>100.2102656020115</v>
       </c>
       <c r="J16" t="n">
-        <v>208.7702838074643</v>
+        <v>208.7702838074642</v>
       </c>
       <c r="K16" t="n">
-        <v>516.0571384596969</v>
+        <v>516.0571384596968</v>
       </c>
       <c r="L16" t="n">
-        <v>974.3306574868792</v>
+        <v>974.3306574868791</v>
       </c>
       <c r="M16" t="n">
-        <v>1475.752483653749</v>
+        <v>1475.752483653748</v>
       </c>
       <c r="N16" t="n">
         <v>1959.084822953748</v>
@@ -5463,22 +5463,22 @@
         <v>2986.373806490227</v>
       </c>
       <c r="S16" t="n">
-        <v>2836.953284051322</v>
+        <v>2836.953284051321</v>
       </c>
       <c r="T16" t="n">
-        <v>2597.781960565263</v>
+        <v>2597.781960565262</v>
       </c>
       <c r="U16" t="n">
-        <v>2325.058946178863</v>
+        <v>2325.058946178862</v>
       </c>
       <c r="V16" t="n">
         <v>2043.800517471318</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.471192479635</v>
+        <v>1777.471192479634</v>
       </c>
       <c r="X16" t="n">
-        <v>1537.776517235072</v>
+        <v>1537.776517235071</v>
       </c>
       <c r="Y16" t="n">
         <v>1316.053925971205</v>
@@ -5503,7 +5503,7 @@
         <v>1195.584461321601</v>
       </c>
       <c r="F17" t="n">
-        <v>773.4141111528339</v>
+        <v>773.414111152834</v>
       </c>
       <c r="G17" t="n">
         <v>378.2408789613739</v>
@@ -5512,43 +5512,43 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I17" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J17" t="n">
-        <v>163.6158717716933</v>
+        <v>598.8705592246113</v>
       </c>
       <c r="K17" t="n">
-        <v>229.3830242638736</v>
+        <v>1498.98800367497</v>
       </c>
       <c r="L17" t="n">
-        <v>1096.985058516473</v>
+        <v>2053.561977199863</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.769618838338</v>
+        <v>2144.346537521729</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.754151694995</v>
+        <v>2236.600086941938</v>
       </c>
       <c r="O17" t="n">
-        <v>3473.046228980134</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P17" t="n">
-        <v>4375.704530941788</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q17" t="n">
-        <v>4978.035889357483</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R17" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S17" t="n">
         <v>4944.579342311526</v>
       </c>
       <c r="T17" t="n">
-        <v>4732.518412370222</v>
+        <v>4732.518412370221</v>
       </c>
       <c r="U17" t="n">
-        <v>4479.035390690324</v>
+        <v>4479.035390690323</v>
       </c>
       <c r="V17" t="n">
         <v>4122.115520046174</v>
@@ -5582,7 +5582,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F18" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G18" t="n">
         <v>139.21999673371</v>
@@ -5594,25 +5594,25 @@
         <v>135.7983032046793</v>
       </c>
       <c r="J18" t="n">
-        <v>161.9338872110042</v>
+        <v>486.4922121772164</v>
       </c>
       <c r="K18" t="n">
-        <v>887.337283162764</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L18" t="n">
-        <v>947.4014438903583</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M18" t="n">
-        <v>1017.493486416025</v>
+        <v>661.3182913118598</v>
       </c>
       <c r="N18" t="n">
-        <v>1089.440656741964</v>
+        <v>733.2654616377988</v>
       </c>
       <c r="O18" t="n">
-        <v>1155.258261569553</v>
+        <v>799.0830664653881</v>
       </c>
       <c r="P18" t="n">
-        <v>1208.082692026235</v>
+        <v>1043.644148579473</v>
       </c>
       <c r="Q18" t="n">
         <v>1619.694820042897</v>
@@ -5652,19 +5652,19 @@
         <v>1129.932386674243</v>
       </c>
       <c r="C19" t="n">
-        <v>963.0677545794928</v>
+        <v>963.0677545794927</v>
       </c>
       <c r="D19" t="n">
-        <v>802.8868412030404</v>
+        <v>802.8868412030403</v>
       </c>
       <c r="E19" t="n">
-        <v>638.8259168758026</v>
+        <v>638.8259168758025</v>
       </c>
       <c r="F19" t="n">
-        <v>467.8159422595837</v>
+        <v>467.8159422595836</v>
       </c>
       <c r="G19" t="n">
-        <v>308.1583739127144</v>
+        <v>308.1583739127143</v>
       </c>
       <c r="H19" t="n">
         <v>176.0571099956768</v>
@@ -5673,16 +5673,16 @@
         <v>100.2102656020115</v>
       </c>
       <c r="J19" t="n">
-        <v>208.7702838074643</v>
+        <v>208.770283807464</v>
       </c>
       <c r="K19" t="n">
-        <v>516.0571384596969</v>
+        <v>516.0571384596966</v>
       </c>
       <c r="L19" t="n">
-        <v>974.3306574868792</v>
+        <v>974.3306574868787</v>
       </c>
       <c r="M19" t="n">
-        <v>1475.752483653749</v>
+        <v>1475.752483653748</v>
       </c>
       <c r="N19" t="n">
         <v>1959.084822953748</v>
@@ -5694,28 +5694,28 @@
         <v>2798.258449241664</v>
       </c>
       <c r="Q19" t="n">
-        <v>2991.454928750965</v>
+        <v>2991.454928750964</v>
       </c>
       <c r="R19" t="n">
         <v>2986.373806490227</v>
       </c>
       <c r="S19" t="n">
-        <v>2836.953284051322</v>
+        <v>2836.953284051321</v>
       </c>
       <c r="T19" t="n">
-        <v>2597.781960565263</v>
+        <v>2597.781960565262</v>
       </c>
       <c r="U19" t="n">
-        <v>2325.058946178863</v>
+        <v>2325.058946178862</v>
       </c>
       <c r="V19" t="n">
         <v>2043.800517471318</v>
       </c>
       <c r="W19" t="n">
-        <v>1777.471192479635</v>
+        <v>1777.471192479634</v>
       </c>
       <c r="X19" t="n">
-        <v>1537.776517235072</v>
+        <v>1537.776517235071</v>
       </c>
       <c r="Y19" t="n">
         <v>1316.053925971205</v>
@@ -5734,13 +5734,13 @@
         <v>2053.874832144812</v>
       </c>
       <c r="D20" t="n">
-        <v>1623.662126741282</v>
+        <v>1623.662126741281</v>
       </c>
       <c r="E20" t="n">
-        <v>1195.584461321602</v>
+        <v>1195.584461321601</v>
       </c>
       <c r="F20" t="n">
-        <v>773.4141111528343</v>
+        <v>773.4141111528339</v>
       </c>
       <c r="G20" t="n">
         <v>378.2408789613739</v>
@@ -5749,40 +5749,40 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I20" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J20" t="n">
         <v>598.8705592246113</v>
       </c>
       <c r="K20" t="n">
-        <v>664.6377117167915</v>
+        <v>1498.98800367497</v>
       </c>
       <c r="L20" t="n">
-        <v>1821.287646165634</v>
+        <v>2655.637938123812</v>
       </c>
       <c r="M20" t="n">
-        <v>2144.34653752173</v>
+        <v>3124.526204092035</v>
       </c>
       <c r="N20" t="n">
-        <v>2236.600086941939</v>
+        <v>3216.779753512244</v>
       </c>
       <c r="O20" t="n">
-        <v>3303.892164227078</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P20" t="n">
-        <v>4206.550466188732</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q20" t="n">
-        <v>4808.881824604427</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R20" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S20" t="n">
         <v>4944.579342311526</v>
       </c>
       <c r="T20" t="n">
-        <v>4732.518412370222</v>
+        <v>4732.518412370221</v>
       </c>
       <c r="U20" t="n">
         <v>4479.035390690323</v>
@@ -5819,7 +5819,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F21" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G21" t="n">
         <v>139.21999673371</v>
@@ -5828,31 +5828,31 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7346300442217</v>
+        <v>135.7983032046793</v>
       </c>
       <c r="J21" t="n">
-        <v>135.8702140505465</v>
+        <v>486.4922121772164</v>
       </c>
       <c r="K21" t="n">
-        <v>180.5400899319291</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L21" t="n">
-        <v>240.6042506595234</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M21" t="n">
-        <v>310.69629318519</v>
+        <v>661.3182913118598</v>
       </c>
       <c r="N21" t="n">
-        <v>382.6434635111291</v>
+        <v>733.2654616377988</v>
       </c>
       <c r="O21" t="n">
-        <v>448.4610683387184</v>
+        <v>799.0830664653881</v>
       </c>
       <c r="P21" t="n">
-        <v>1321.008665274598</v>
+        <v>1043.644148579473</v>
       </c>
       <c r="Q21" t="n">
-        <v>1736.867598137237</v>
+        <v>1619.694820042897</v>
       </c>
       <c r="R21" t="n">
         <v>1754.042999798884</v>
@@ -5889,37 +5889,37 @@
         <v>1129.932386674243</v>
       </c>
       <c r="C22" t="n">
-        <v>963.0677545794928</v>
+        <v>963.0677545794927</v>
       </c>
       <c r="D22" t="n">
-        <v>802.8868412030404</v>
+        <v>802.8868412030403</v>
       </c>
       <c r="E22" t="n">
-        <v>638.8259168758026</v>
+        <v>638.8259168758025</v>
       </c>
       <c r="F22" t="n">
-        <v>467.8159422595837</v>
+        <v>467.8159422595836</v>
       </c>
       <c r="G22" t="n">
-        <v>308.1583739127144</v>
+        <v>308.1583739127142</v>
       </c>
       <c r="H22" t="n">
-        <v>176.0571099956768</v>
+        <v>176.0571099956767</v>
       </c>
       <c r="I22" t="n">
         <v>100.2102656020115</v>
       </c>
       <c r="J22" t="n">
-        <v>208.7702838074643</v>
+        <v>208.7702838074642</v>
       </c>
       <c r="K22" t="n">
-        <v>516.0571384596969</v>
+        <v>516.0571384596968</v>
       </c>
       <c r="L22" t="n">
-        <v>974.3306574868792</v>
+        <v>974.330657486879</v>
       </c>
       <c r="M22" t="n">
-        <v>1475.752483653749</v>
+        <v>1475.752483653748</v>
       </c>
       <c r="N22" t="n">
         <v>1959.084822953748</v>
@@ -5931,28 +5931,28 @@
         <v>2798.258449241664</v>
       </c>
       <c r="Q22" t="n">
-        <v>2991.454928750965</v>
+        <v>2991.454928750964</v>
       </c>
       <c r="R22" t="n">
         <v>2986.373806490227</v>
       </c>
       <c r="S22" t="n">
-        <v>2836.953284051322</v>
+        <v>2836.953284051321</v>
       </c>
       <c r="T22" t="n">
-        <v>2597.781960565263</v>
+        <v>2597.781960565262</v>
       </c>
       <c r="U22" t="n">
-        <v>2325.058946178863</v>
+        <v>2325.058946178862</v>
       </c>
       <c r="V22" t="n">
         <v>2043.800517471318</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.471192479635</v>
+        <v>1777.471192479634</v>
       </c>
       <c r="X22" t="n">
-        <v>1537.776517235072</v>
+        <v>1537.776517235071</v>
       </c>
       <c r="Y22" t="n">
         <v>1316.053925971205</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2486.320225539364</v>
+        <v>2486.320225539363</v>
       </c>
       <c r="C23" t="n">
         <v>2053.874832144812</v>
@@ -5986,52 +5986,52 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I23" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J23" t="n">
         <v>163.6158717716933</v>
       </c>
       <c r="K23" t="n">
-        <v>1063.733316222052</v>
+        <v>229.3830242638736</v>
       </c>
       <c r="L23" t="n">
-        <v>2220.383250670894</v>
+        <v>1322.476242805437</v>
       </c>
       <c r="M23" t="n">
-        <v>2859.999388233381</v>
+        <v>2562.57827963033</v>
       </c>
       <c r="N23" t="n">
-        <v>2952.25293765359</v>
+        <v>3780.562812486986</v>
       </c>
       <c r="O23" t="n">
-        <v>4019.545014938729</v>
+        <v>4847.854889772125</v>
       </c>
       <c r="P23" t="n">
-        <v>4922.203316900383</v>
+        <v>4922.203316900382</v>
       </c>
       <c r="Q23" t="n">
-        <v>4978.035889357483</v>
+        <v>4978.035889357482</v>
       </c>
       <c r="R23" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S23" t="n">
         <v>4944.579342311526</v>
       </c>
       <c r="T23" t="n">
-        <v>4732.518412370222</v>
+        <v>4732.518412370221</v>
       </c>
       <c r="U23" t="n">
-        <v>4479.035390690324</v>
+        <v>4479.035390690323</v>
       </c>
       <c r="V23" t="n">
-        <v>4122.115520046175</v>
+        <v>4122.115520046174</v>
       </c>
       <c r="W23" t="n">
-        <v>3722.957144879234</v>
+        <v>3722.957144879233</v>
       </c>
       <c r="X23" t="n">
-        <v>3309.511760880569</v>
+        <v>3309.511760880568</v>
       </c>
       <c r="Y23" t="n">
         <v>2906.922716602247</v>
@@ -6056,7 +6056,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F24" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G24" t="n">
         <v>139.21999673371</v>
@@ -6065,28 +6065,28 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7346300442217</v>
+        <v>135.7983032046793</v>
       </c>
       <c r="J24" t="n">
-        <v>135.8702140505465</v>
+        <v>486.4922121772164</v>
       </c>
       <c r="K24" t="n">
-        <v>180.5400899319291</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L24" t="n">
-        <v>240.6042506595234</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M24" t="n">
-        <v>379.9922717830373</v>
+        <v>661.3182913118598</v>
       </c>
       <c r="N24" t="n">
-        <v>451.9394421089764</v>
+        <v>733.2654616377988</v>
       </c>
       <c r="O24" t="n">
-        <v>1531.558656754868</v>
+        <v>799.0830664653881</v>
       </c>
       <c r="P24" t="n">
-        <v>1584.383087211549</v>
+        <v>1043.644148579473</v>
       </c>
       <c r="Q24" t="n">
         <v>1619.694820042897</v>
@@ -6126,19 +6126,19 @@
         <v>1129.932386674243</v>
       </c>
       <c r="C25" t="n">
-        <v>963.0677545794928</v>
+        <v>963.0677545794927</v>
       </c>
       <c r="D25" t="n">
-        <v>802.8868412030404</v>
+        <v>802.8868412030403</v>
       </c>
       <c r="E25" t="n">
-        <v>638.8259168758026</v>
+        <v>638.8259168758025</v>
       </c>
       <c r="F25" t="n">
-        <v>467.8159422595837</v>
+        <v>467.8159422595836</v>
       </c>
       <c r="G25" t="n">
-        <v>308.1583739127144</v>
+        <v>308.1583739127143</v>
       </c>
       <c r="H25" t="n">
         <v>176.0571099956768</v>
@@ -6147,16 +6147,16 @@
         <v>100.2102656020115</v>
       </c>
       <c r="J25" t="n">
-        <v>208.7702838074644</v>
+        <v>208.770283807464</v>
       </c>
       <c r="K25" t="n">
-        <v>516.0571384596971</v>
+        <v>516.0571384596966</v>
       </c>
       <c r="L25" t="n">
-        <v>974.3306574868792</v>
+        <v>974.3306574868787</v>
       </c>
       <c r="M25" t="n">
-        <v>1475.752483653749</v>
+        <v>1475.752483653748</v>
       </c>
       <c r="N25" t="n">
         <v>1959.084822953748</v>
@@ -6168,28 +6168,28 @@
         <v>2798.258449241664</v>
       </c>
       <c r="Q25" t="n">
-        <v>2991.454928750965</v>
+        <v>2991.454928750964</v>
       </c>
       <c r="R25" t="n">
         <v>2986.373806490227</v>
       </c>
       <c r="S25" t="n">
-        <v>2836.953284051322</v>
+        <v>2836.953284051321</v>
       </c>
       <c r="T25" t="n">
-        <v>2597.781960565263</v>
+        <v>2597.781960565262</v>
       </c>
       <c r="U25" t="n">
-        <v>2325.058946178863</v>
+        <v>2325.058946178862</v>
       </c>
       <c r="V25" t="n">
         <v>2043.800517471318</v>
       </c>
       <c r="W25" t="n">
-        <v>1777.471192479635</v>
+        <v>1777.471192479634</v>
       </c>
       <c r="X25" t="n">
-        <v>1537.776517235072</v>
+        <v>1537.776517235071</v>
       </c>
       <c r="Y25" t="n">
         <v>1316.053925971205</v>
@@ -6232,13 +6232,13 @@
         <v>1500.615740652691</v>
       </c>
       <c r="L26" t="n">
-        <v>1582.205708848674</v>
+        <v>2134.948826085933</v>
       </c>
       <c r="M26" t="n">
-        <v>2080.182069541659</v>
+        <v>2225.733386407799</v>
       </c>
       <c r="N26" t="n">
-        <v>3298.166602398315</v>
+        <v>2317.986935828008</v>
       </c>
       <c r="O26" t="n">
         <v>3385.279013113147</v>
@@ -6265,13 +6265,13 @@
         <v>4180.714051244146</v>
       </c>
       <c r="W26" t="n">
-        <v>3775.858596655179</v>
+        <v>3775.858596655178</v>
       </c>
       <c r="X26" t="n">
         <v>3356.716133234489</v>
       </c>
       <c r="Y26" t="n">
-        <v>2948.430009534143</v>
+        <v>2948.430009534142</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>101.8380025797329</v>
       </c>
       <c r="I27" t="n">
-        <v>137.4260401824008</v>
+        <v>137.4260401824007</v>
       </c>
       <c r="J27" t="n">
-        <v>488.1199491549379</v>
+        <v>488.1199491549378</v>
       </c>
       <c r="K27" t="n">
         <v>724.526476693724</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1171.439679606139</v>
+        <v>1046.394950204289</v>
       </c>
       <c r="C28" t="n">
-        <v>998.8779680893637</v>
+        <v>873.8332386875137</v>
       </c>
       <c r="D28" t="n">
-        <v>832.9999752908864</v>
+        <v>707.9552458890364</v>
       </c>
       <c r="E28" t="n">
-        <v>663.2419715416237</v>
+        <v>538.1972421397736</v>
       </c>
       <c r="F28" t="n">
-        <v>486.5349175033799</v>
+        <v>361.4901881015298</v>
       </c>
       <c r="G28" t="n">
-        <v>321.1802697344856</v>
+        <v>196.1355403326355</v>
       </c>
       <c r="H28" t="n">
-        <v>183.3819263954232</v>
+        <v>101.8380025797329</v>
       </c>
       <c r="I28" t="n">
         <v>101.8380025797329</v>
@@ -6408,28 +6408,28 @@
         <v>2948.413005396473</v>
       </c>
       <c r="R28" t="n">
-        <v>2937.63480371371</v>
+        <v>2948.413005396473</v>
       </c>
       <c r="S28" t="n">
-        <v>2782.51720185278</v>
+        <v>2793.295403535542</v>
       </c>
       <c r="T28" t="n">
-        <v>2537.648798944696</v>
+        <v>2548.427000627458</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.228705136271</v>
+        <v>2270.006906819033</v>
       </c>
       <c r="V28" t="n">
-        <v>2108.096128091314</v>
+        <v>1983.051398689464</v>
       </c>
       <c r="W28" t="n">
-        <v>1836.069723677605</v>
+        <v>1711.024994275755</v>
       </c>
       <c r="X28" t="n">
-        <v>1590.677969011018</v>
+        <v>1465.633239609168</v>
       </c>
       <c r="Y28" t="n">
-        <v>1363.258298325126</v>
+        <v>1238.213568923276</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2522.130439049235</v>
       </c>
       <c r="C29" t="n">
-        <v>2083.987966232658</v>
+        <v>2083.987966232659</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.078181407102</v>
+        <v>1648.078181407103</v>
       </c>
       <c r="E29" t="n">
         <v>1214.303436565398</v>
       </c>
       <c r="F29" t="n">
-        <v>786.4360069746053</v>
+        <v>786.4360069746062</v>
       </c>
       <c r="G29" t="n">
         <v>385.5656953611203</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8380025797329</v>
+        <v>101.838002579733</v>
       </c>
       <c r="I29" t="n">
         <v>121.3620025952473</v>
@@ -6466,49 +6466,49 @@
         <v>600.4982962023327</v>
       </c>
       <c r="K29" t="n">
-        <v>832.747574770951</v>
+        <v>1500.615740652691</v>
       </c>
       <c r="L29" t="n">
-        <v>1989.397509219793</v>
+        <v>2134.948826085934</v>
       </c>
       <c r="M29" t="n">
-        <v>2080.182069541659</v>
+        <v>2225.7333864078</v>
       </c>
       <c r="N29" t="n">
-        <v>3298.166602398315</v>
+        <v>2317.986935828009</v>
       </c>
       <c r="O29" t="n">
-        <v>3385.279013113147</v>
+        <v>3385.279013113148</v>
       </c>
       <c r="P29" t="n">
         <v>4287.937315074802</v>
       </c>
       <c r="Q29" t="n">
-        <v>4890.268673490496</v>
+        <v>4890.268673490497</v>
       </c>
       <c r="R29" t="n">
-        <v>5091.900128986647</v>
+        <v>5091.900128986648</v>
       </c>
       <c r="S29" t="n">
-        <v>5020.269111775571</v>
+        <v>5020.269111775572</v>
       </c>
       <c r="T29" t="n">
-        <v>4802.511102412242</v>
+        <v>4802.511102412243</v>
       </c>
       <c r="U29" t="n">
-        <v>4543.331001310318</v>
+        <v>4543.331001310319</v>
       </c>
       <c r="V29" t="n">
-        <v>4180.714051244145</v>
+        <v>4180.714051244146</v>
       </c>
       <c r="W29" t="n">
-        <v>3775.858596655178</v>
+        <v>3775.858596655179</v>
       </c>
       <c r="X29" t="n">
         <v>3356.716133234489</v>
       </c>
       <c r="Y29" t="n">
-        <v>2948.430009534142</v>
+        <v>2948.430009534143</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>605.0015785625895</v>
+        <v>605.0015785625897</v>
       </c>
       <c r="C30" t="n">
         <v>498.5451173992319</v>
       </c>
       <c r="D30" t="n">
-        <v>403.4548285457851</v>
+        <v>403.4548285457852</v>
       </c>
       <c r="E30" t="n">
-        <v>309.3344138727388</v>
+        <v>309.3344138727389</v>
       </c>
       <c r="F30" t="n">
         <v>225.9505754889005</v>
       </c>
       <c r="G30" t="n">
-        <v>140.8477337114314</v>
+        <v>140.8477337114315</v>
       </c>
       <c r="H30" t="n">
-        <v>101.8380025797329</v>
+        <v>101.838002579733</v>
       </c>
       <c r="I30" t="n">
         <v>137.4260401824008</v>
@@ -6560,10 +6560,10 @@
         <v>800.7108034431095</v>
       </c>
       <c r="P30" t="n">
-        <v>1673.258400378989</v>
+        <v>1045.271885557195</v>
       </c>
       <c r="Q30" t="n">
-        <v>1708.570133210337</v>
+        <v>1621.322557020619</v>
       </c>
       <c r="R30" t="n">
         <v>1755.670736776605</v>
@@ -6584,10 +6584,10 @@
         <v>1007.658694624252</v>
       </c>
       <c r="X30" t="n">
-        <v>852.7912588631319</v>
+        <v>852.791258863132</v>
       </c>
       <c r="Y30" t="n">
-        <v>726.3054796423527</v>
+        <v>726.3054796423528</v>
       </c>
     </row>
     <row r="31">
@@ -6618,7 +6618,7 @@
         <v>183.3819263954232</v>
       </c>
       <c r="I31" t="n">
-        <v>101.8380025797329</v>
+        <v>101.838002579733</v>
       </c>
       <c r="J31" t="n">
         <v>204.8143132436591</v>
@@ -6645,25 +6645,25 @@
         <v>2948.413005396473</v>
       </c>
       <c r="R31" t="n">
-        <v>2937.63480371371</v>
+        <v>2948.413005396473</v>
       </c>
       <c r="S31" t="n">
-        <v>2918.340132937392</v>
+        <v>2793.295403535542</v>
       </c>
       <c r="T31" t="n">
-        <v>2673.471730029308</v>
+        <v>2548.427000627458</v>
       </c>
       <c r="U31" t="n">
-        <v>2395.051636220883</v>
+        <v>2270.006906819033</v>
       </c>
       <c r="V31" t="n">
-        <v>2108.096128091314</v>
+        <v>1983.051398689464</v>
       </c>
       <c r="W31" t="n">
-        <v>1836.069723677605</v>
+        <v>1711.024994275755</v>
       </c>
       <c r="X31" t="n">
-        <v>1590.677969011018</v>
+        <v>1465.633239609168</v>
       </c>
       <c r="Y31" t="n">
         <v>1363.258298325126</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2522.130439049236</v>
+        <v>2522.130439049235</v>
       </c>
       <c r="C32" t="n">
-        <v>2083.987966232659</v>
+        <v>2083.987966232658</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.078181407103</v>
+        <v>1648.078181407102</v>
       </c>
       <c r="E32" t="n">
         <v>1214.303436565398</v>
       </c>
       <c r="F32" t="n">
-        <v>786.4360069746062</v>
+        <v>786.4360069746052</v>
       </c>
       <c r="G32" t="n">
         <v>385.5656953611203</v>
@@ -6697,37 +6697,37 @@
         <v>101.8380025797329</v>
       </c>
       <c r="I32" t="n">
-        <v>121.3620025952473</v>
+        <v>121.3620025952472</v>
       </c>
       <c r="J32" t="n">
-        <v>165.2436087494148</v>
+        <v>600.4982962023327</v>
       </c>
       <c r="K32" t="n">
-        <v>231.010761241595</v>
+        <v>1500.615740652691</v>
       </c>
       <c r="L32" t="n">
-        <v>1387.660695690437</v>
+        <v>1582.205708848674</v>
       </c>
       <c r="M32" t="n">
-        <v>1478.445256012303</v>
+        <v>1672.990269170539</v>
       </c>
       <c r="N32" t="n">
         <v>2317.986935828008</v>
       </c>
       <c r="O32" t="n">
-        <v>3385.279013113147</v>
+        <v>3385.279013113146</v>
       </c>
       <c r="P32" t="n">
-        <v>4287.937315074802</v>
+        <v>4287.937315074801</v>
       </c>
       <c r="Q32" t="n">
         <v>4890.268673490496</v>
       </c>
       <c r="R32" t="n">
-        <v>5091.900128986647</v>
+        <v>5091.900128986646</v>
       </c>
       <c r="S32" t="n">
-        <v>5020.269111775571</v>
+        <v>5020.26911177557</v>
       </c>
       <c r="T32" t="n">
         <v>4802.511102412243</v>
@@ -6742,7 +6742,7 @@
         <v>3775.858596655179</v>
       </c>
       <c r="X32" t="n">
-        <v>3356.71613323449</v>
+        <v>3356.716133234489</v>
       </c>
       <c r="Y32" t="n">
         <v>2948.430009534143</v>
@@ -6776,31 +6776,31 @@
         <v>101.8380025797329</v>
       </c>
       <c r="I33" t="n">
-        <v>111.3623670219431</v>
+        <v>137.4260401824007</v>
       </c>
       <c r="J33" t="n">
-        <v>137.4979510282679</v>
+        <v>488.1199491549378</v>
       </c>
       <c r="K33" t="n">
-        <v>182.1678269096505</v>
+        <v>532.7898250363204</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2319876372448</v>
+        <v>592.8539857639147</v>
       </c>
       <c r="M33" t="n">
-        <v>312.3240301629114</v>
+        <v>662.9460282895811</v>
       </c>
       <c r="N33" t="n">
-        <v>384.2712004888505</v>
+        <v>734.8931986155202</v>
       </c>
       <c r="O33" t="n">
-        <v>450.0888053164398</v>
+        <v>800.7108034431095</v>
       </c>
       <c r="P33" t="n">
-        <v>1162.444663651534</v>
+        <v>1045.271885557194</v>
       </c>
       <c r="Q33" t="n">
-        <v>1738.495335114958</v>
+        <v>1621.322557020618</v>
       </c>
       <c r="R33" t="n">
         <v>1755.670736776605</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1035.616748521526</v>
+        <v>1046.394950204289</v>
       </c>
       <c r="C34" t="n">
-        <v>863.0550370047514</v>
+        <v>873.8332386875137</v>
       </c>
       <c r="D34" t="n">
-        <v>697.1770442062741</v>
+        <v>832.9999752908864</v>
       </c>
       <c r="E34" t="n">
-        <v>527.4190404570113</v>
+        <v>663.2419715416237</v>
       </c>
       <c r="F34" t="n">
-        <v>350.7119864187675</v>
+        <v>486.5349175033799</v>
       </c>
       <c r="G34" t="n">
-        <v>185.3573386498732</v>
+        <v>321.1802697344856</v>
       </c>
       <c r="H34" t="n">
         <v>183.3819263954232</v>
@@ -6858,10 +6858,10 @@
         <v>101.8380025797329</v>
       </c>
       <c r="J34" t="n">
-        <v>204.8143132436591</v>
+        <v>204.814313243659</v>
       </c>
       <c r="K34" t="n">
-        <v>506.5174603543651</v>
+        <v>506.517460354365</v>
       </c>
       <c r="L34" t="n">
         <v>959.2072718400206</v>
@@ -6882,28 +6882,28 @@
         <v>2948.413005396473</v>
       </c>
       <c r="R34" t="n">
-        <v>2937.63480371371</v>
+        <v>2948.413005396473</v>
       </c>
       <c r="S34" t="n">
-        <v>2782.51720185278</v>
+        <v>2793.295403535542</v>
       </c>
       <c r="T34" t="n">
-        <v>2537.648798944696</v>
+        <v>2548.427000627458</v>
       </c>
       <c r="U34" t="n">
-        <v>2259.228705136271</v>
+        <v>2270.006906819033</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.273197006701</v>
+        <v>1983.051398689464</v>
       </c>
       <c r="W34" t="n">
-        <v>1700.246792592993</v>
+        <v>1711.024994275755</v>
       </c>
       <c r="X34" t="n">
-        <v>1454.855037926405</v>
+        <v>1465.633239609168</v>
       </c>
       <c r="Y34" t="n">
-        <v>1227.435367240514</v>
+        <v>1238.213568923276</v>
       </c>
     </row>
     <row r="35">
@@ -6934,40 +6934,40 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I35" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J35" t="n">
-        <v>163.6158717716933</v>
+        <v>598.8705592246113</v>
       </c>
       <c r="K35" t="n">
-        <v>229.3830242638736</v>
+        <v>1498.98800367497</v>
       </c>
       <c r="L35" t="n">
-        <v>1386.032958712716</v>
+        <v>1580.577971870952</v>
       </c>
       <c r="M35" t="n">
-        <v>1476.817519034581</v>
+        <v>1671.362532192818</v>
       </c>
       <c r="N35" t="n">
-        <v>2694.802051891238</v>
+        <v>2236.600086941938</v>
       </c>
       <c r="O35" t="n">
-        <v>3303.892164227078</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P35" t="n">
-        <v>4206.550466188732</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q35" t="n">
-        <v>4808.881824604427</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R35" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S35" t="n">
         <v>4944.579342311526</v>
       </c>
       <c r="T35" t="n">
-        <v>4732.518412370222</v>
+        <v>4732.518412370221</v>
       </c>
       <c r="U35" t="n">
         <v>4479.035390690323</v>
@@ -7004,7 +7004,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F36" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G36" t="n">
         <v>139.21999673371</v>
@@ -7013,25 +7013,25 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7346300442217</v>
+        <v>135.7983032046793</v>
       </c>
       <c r="J36" t="n">
-        <v>460.4285390167589</v>
+        <v>486.4922121772164</v>
       </c>
       <c r="K36" t="n">
-        <v>722.898739716003</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9629004435973</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M36" t="n">
-        <v>853.0549429692637</v>
+        <v>661.3182913118598</v>
       </c>
       <c r="N36" t="n">
-        <v>925.0021132952029</v>
+        <v>733.2654616377988</v>
       </c>
       <c r="O36" t="n">
-        <v>990.8197181227921</v>
+        <v>799.0830664653881</v>
       </c>
       <c r="P36" t="n">
         <v>1043.644148579473</v>
@@ -7095,34 +7095,34 @@
         <v>100.2102656020115</v>
       </c>
       <c r="J37" t="n">
-        <v>208.7702838074643</v>
+        <v>208.7702838074634</v>
       </c>
       <c r="K37" t="n">
-        <v>516.0571384596971</v>
+        <v>516.057138459696</v>
       </c>
       <c r="L37" t="n">
-        <v>974.3306574868794</v>
+        <v>974.3306574868783</v>
       </c>
       <c r="M37" t="n">
-        <v>1475.752483653749</v>
+        <v>1475.752483653748</v>
       </c>
       <c r="N37" t="n">
-        <v>1959.084822953749</v>
+        <v>1959.084822953748</v>
       </c>
       <c r="O37" t="n">
-        <v>2417.118380629135</v>
+        <v>2417.118380629134</v>
       </c>
       <c r="P37" t="n">
         <v>2798.258449241664</v>
       </c>
       <c r="Q37" t="n">
-        <v>2991.454928750965</v>
+        <v>2991.454928750964</v>
       </c>
       <c r="R37" t="n">
         <v>2986.373806490227</v>
       </c>
       <c r="S37" t="n">
-        <v>2836.953284051322</v>
+        <v>2836.953284051321</v>
       </c>
       <c r="T37" t="n">
         <v>2597.781960565262</v>
@@ -7162,7 +7162,7 @@
         <v>1195.584461321601</v>
       </c>
       <c r="F38" t="n">
-        <v>773.4141111528339</v>
+        <v>773.4141111528338</v>
       </c>
       <c r="G38" t="n">
         <v>378.2408789613739</v>
@@ -7171,7 +7171,7 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I38" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J38" t="n">
         <v>598.8705592246113</v>
@@ -7183,31 +7183,31 @@
         <v>2655.637938123812</v>
       </c>
       <c r="M38" t="n">
-        <v>3895.739974948705</v>
+        <v>3124.526204092035</v>
       </c>
       <c r="N38" t="n">
-        <v>3987.993524368914</v>
+        <v>3216.779753512244</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.105935083746</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P38" t="n">
-        <v>4206.550466188732</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q38" t="n">
-        <v>4808.881824604427</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R38" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S38" t="n">
         <v>4944.579342311526</v>
       </c>
       <c r="T38" t="n">
-        <v>4732.518412370222</v>
+        <v>4732.518412370221</v>
       </c>
       <c r="U38" t="n">
-        <v>4479.035390690324</v>
+        <v>4479.035390690323</v>
       </c>
       <c r="V38" t="n">
         <v>4122.115520046174</v>
@@ -7241,7 +7241,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F39" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G39" t="n">
         <v>139.21999673371</v>
@@ -7250,31 +7250,31 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7346300442217</v>
+        <v>135.7983032046793</v>
       </c>
       <c r="J39" t="n">
-        <v>135.8702140505465</v>
+        <v>161.9338872110041</v>
       </c>
       <c r="K39" t="n">
-        <v>180.5400899319291</v>
+        <v>206.6037630923866</v>
       </c>
       <c r="L39" t="n">
-        <v>1195.147299470627</v>
+        <v>1221.210972631085</v>
       </c>
       <c r="M39" t="n">
-        <v>1510.966659695679</v>
+        <v>1291.303015156751</v>
       </c>
       <c r="N39" t="n">
-        <v>1582.913830021618</v>
+        <v>1363.250185482691</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.731434849207</v>
+        <v>1429.06779031028</v>
       </c>
       <c r="P39" t="n">
-        <v>1701.555865305889</v>
+        <v>1481.892220766961</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.867598137237</v>
+        <v>1619.694820042897</v>
       </c>
       <c r="R39" t="n">
         <v>1754.042999798884</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1129.932386674243</v>
+        <v>1129.932386674242</v>
       </c>
       <c r="C40" t="n">
-        <v>963.0677545794927</v>
+        <v>963.0677545794924</v>
       </c>
       <c r="D40" t="n">
-        <v>802.8868412030403</v>
+        <v>802.8868412030401</v>
       </c>
       <c r="E40" t="n">
-        <v>638.8259168758025</v>
+        <v>638.8259168758024</v>
       </c>
       <c r="F40" t="n">
         <v>467.8159422595836</v>
       </c>
       <c r="G40" t="n">
-        <v>308.1583739127143</v>
+        <v>308.1583739127142</v>
       </c>
       <c r="H40" t="n">
         <v>176.0571099956768</v>
@@ -7335,10 +7335,10 @@
         <v>208.7702838074643</v>
       </c>
       <c r="K40" t="n">
-        <v>516.0571384596969</v>
+        <v>516.0571384596971</v>
       </c>
       <c r="L40" t="n">
-        <v>974.3306574868792</v>
+        <v>974.3306574868793</v>
       </c>
       <c r="M40" t="n">
         <v>1475.752483653749</v>
@@ -7353,13 +7353,13 @@
         <v>2798.258449241664</v>
       </c>
       <c r="Q40" t="n">
-        <v>2991.454928750964</v>
+        <v>2991.454928750965</v>
       </c>
       <c r="R40" t="n">
-        <v>2986.373806490227</v>
+        <v>2986.373806490228</v>
       </c>
       <c r="S40" t="n">
-        <v>2836.953284051321</v>
+        <v>2836.953284051322</v>
       </c>
       <c r="T40" t="n">
         <v>2597.781960565262</v>
@@ -7368,7 +7368,7 @@
         <v>2325.058946178862</v>
       </c>
       <c r="V40" t="n">
-        <v>2043.800517471318</v>
+        <v>2043.800517471317</v>
       </c>
       <c r="W40" t="n">
         <v>1777.471192479634</v>
@@ -7408,34 +7408,34 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I41" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J41" t="n">
         <v>598.8705592246113</v>
       </c>
       <c r="K41" t="n">
-        <v>1498.98800367497</v>
+        <v>846.2410255674331</v>
       </c>
       <c r="L41" t="n">
-        <v>2655.637938123812</v>
+        <v>927.8309937634158</v>
       </c>
       <c r="M41" t="n">
-        <v>3895.739974948705</v>
+        <v>1018.615554085282</v>
       </c>
       <c r="N41" t="n">
-        <v>3987.993524368914</v>
+        <v>2236.600086941938</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.105935083746</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P41" t="n">
-        <v>4206.550466188732</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q41" t="n">
-        <v>4808.881824604427</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R41" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S41" t="n">
         <v>4944.579342311526</v>
@@ -7478,7 +7478,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F42" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G42" t="n">
         <v>139.21999673371</v>
@@ -7487,31 +7487,31 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7346300442217</v>
+        <v>135.7983032046793</v>
       </c>
       <c r="J42" t="n">
-        <v>460.4285390167589</v>
+        <v>161.9338872110041</v>
       </c>
       <c r="K42" t="n">
-        <v>505.0984148981414</v>
+        <v>206.6037630923866</v>
       </c>
       <c r="L42" t="n">
-        <v>565.1625756257356</v>
+        <v>1221.210972631085</v>
       </c>
       <c r="M42" t="n">
-        <v>635.2546181514022</v>
+        <v>1291.303015156751</v>
       </c>
       <c r="N42" t="n">
-        <v>707.2017884773412</v>
+        <v>1363.250185482691</v>
       </c>
       <c r="O42" t="n">
-        <v>773.0193933049305</v>
+        <v>1429.06779031028</v>
       </c>
       <c r="P42" t="n">
-        <v>1160.816926673813</v>
+        <v>1481.892220766961</v>
       </c>
       <c r="Q42" t="n">
-        <v>1736.867598137237</v>
+        <v>1619.694820042897</v>
       </c>
       <c r="R42" t="n">
         <v>1754.042999798884</v>
@@ -7548,22 +7548,22 @@
         <v>1129.932386674243</v>
       </c>
       <c r="C43" t="n">
-        <v>963.0677545794928</v>
+        <v>963.0677545794927</v>
       </c>
       <c r="D43" t="n">
-        <v>802.8868412030404</v>
+        <v>802.8868412030403</v>
       </c>
       <c r="E43" t="n">
-        <v>638.8259168758026</v>
+        <v>638.8259168758025</v>
       </c>
       <c r="F43" t="n">
-        <v>467.8159422595837</v>
+        <v>467.8159422595836</v>
       </c>
       <c r="G43" t="n">
-        <v>308.1583739127144</v>
+        <v>308.1583739127143</v>
       </c>
       <c r="H43" t="n">
-        <v>176.0571099956769</v>
+        <v>176.0571099956768</v>
       </c>
       <c r="I43" t="n">
         <v>100.2102656020115</v>
@@ -7572,7 +7572,7 @@
         <v>208.7702838074643</v>
       </c>
       <c r="K43" t="n">
-        <v>516.0571384596969</v>
+        <v>516.0571384596971</v>
       </c>
       <c r="L43" t="n">
         <v>974.3306574868792</v>
@@ -7590,7 +7590,7 @@
         <v>2798.258449241664</v>
       </c>
       <c r="Q43" t="n">
-        <v>2991.454928750965</v>
+        <v>2991.454928750964</v>
       </c>
       <c r="R43" t="n">
         <v>2986.373806490227</v>
@@ -7645,49 +7645,49 @@
         <v>100.2102656020115</v>
       </c>
       <c r="I44" t="n">
-        <v>119.7342656175259</v>
+        <v>119.7342656175258</v>
       </c>
       <c r="J44" t="n">
         <v>598.8705592246113</v>
       </c>
       <c r="K44" t="n">
-        <v>664.6377117167915</v>
+        <v>1498.98800367497</v>
       </c>
       <c r="L44" t="n">
-        <v>927.8309937634167</v>
+        <v>1580.577971870952</v>
       </c>
       <c r="M44" t="n">
-        <v>1018.615554085282</v>
+        <v>1671.362532192818</v>
       </c>
       <c r="N44" t="n">
-        <v>2236.600086941939</v>
+        <v>2236.600086941938</v>
       </c>
       <c r="O44" t="n">
-        <v>3303.892164227078</v>
+        <v>3303.892164227077</v>
       </c>
       <c r="P44" t="n">
-        <v>4206.550466188732</v>
+        <v>4206.550466188731</v>
       </c>
       <c r="Q44" t="n">
-        <v>4808.881824604427</v>
+        <v>4808.881824604426</v>
       </c>
       <c r="R44" t="n">
-        <v>5010.513280100578</v>
+        <v>5010.513280100577</v>
       </c>
       <c r="S44" t="n">
         <v>4944.579342311526</v>
       </c>
       <c r="T44" t="n">
-        <v>4732.518412370222</v>
+        <v>4732.518412370221</v>
       </c>
       <c r="U44" t="n">
-        <v>4479.035390690324</v>
+        <v>4479.035390690323</v>
       </c>
       <c r="V44" t="n">
-        <v>4122.115520046175</v>
+        <v>4122.115520046174</v>
       </c>
       <c r="W44" t="n">
-        <v>3722.957144879234</v>
+        <v>3722.957144879233</v>
       </c>
       <c r="X44" t="n">
         <v>3309.511760880568</v>
@@ -7715,7 +7715,7 @@
         <v>307.7066768950174</v>
       </c>
       <c r="F45" t="n">
-        <v>224.3228385111791</v>
+        <v>224.322838511179</v>
       </c>
       <c r="G45" t="n">
         <v>139.21999673371</v>
@@ -7727,22 +7727,22 @@
         <v>135.7983032046793</v>
       </c>
       <c r="J45" t="n">
-        <v>486.4922121772165</v>
+        <v>486.4922121772164</v>
       </c>
       <c r="K45" t="n">
-        <v>722.898739716003</v>
+        <v>531.1620880585989</v>
       </c>
       <c r="L45" t="n">
-        <v>782.9629004435973</v>
+        <v>591.2262487861932</v>
       </c>
       <c r="M45" t="n">
-        <v>853.0549429692637</v>
+        <v>661.3182913118598</v>
       </c>
       <c r="N45" t="n">
-        <v>925.0021132952029</v>
+        <v>733.2654616377988</v>
       </c>
       <c r="O45" t="n">
-        <v>990.8197181227921</v>
+        <v>799.0830664653881</v>
       </c>
       <c r="P45" t="n">
         <v>1043.644148579473</v>
@@ -7785,34 +7785,34 @@
         <v>1129.932386674243</v>
       </c>
       <c r="C46" t="n">
-        <v>963.0677545794928</v>
+        <v>963.0677545794927</v>
       </c>
       <c r="D46" t="n">
-        <v>802.8868412030404</v>
+        <v>802.8868412030403</v>
       </c>
       <c r="E46" t="n">
-        <v>638.8259168758026</v>
+        <v>638.8259168758025</v>
       </c>
       <c r="F46" t="n">
-        <v>467.8159422595837</v>
+        <v>467.8159422595836</v>
       </c>
       <c r="G46" t="n">
-        <v>308.1583739127144</v>
+        <v>308.1583739127143</v>
       </c>
       <c r="H46" t="n">
-        <v>176.0571099956769</v>
+        <v>176.0571099956768</v>
       </c>
       <c r="I46" t="n">
         <v>100.2102656020115</v>
       </c>
       <c r="J46" t="n">
-        <v>208.7702838074642</v>
+        <v>208.7702838074643</v>
       </c>
       <c r="K46" t="n">
-        <v>516.0571384596968</v>
+        <v>516.0571384596969</v>
       </c>
       <c r="L46" t="n">
-        <v>974.330657486879</v>
+        <v>974.3306574868791</v>
       </c>
       <c r="M46" t="n">
         <v>1475.752483653748</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>41.31500304752736</v>
       </c>
       <c r="P2" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L4" t="n">
-        <v>39.64570999510202</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510158</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>13.31876740878077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510158</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510202</v>
+        <v>39.645709995102</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1160.926743942451</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>477.7616215443541</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>469.7014791787728</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>312.0297270219631</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>193.6733855125292</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>623.0888902056156</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>330.7400893563336</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>739.8743336257369</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.55441925765513</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>793.95158187537</v>
+        <v>477.7616215443543</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>193.6733855125293</v>
       </c>
       <c r="Q18" t="n">
-        <v>380.1014092780954</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>234.6205363982124</v>
+        <v>381.9229349963211</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>193.6733855125293</v>
       </c>
       <c r="Q21" t="n">
-        <v>384.391111142718</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>1021.720454894526</v>
       </c>
       <c r="M23" t="n">
-        <v>554.3753305460818</v>
+        <v>1160.926743942451</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>69.99593797762361</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>193.6733855125293</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9880,16 +9880,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>558.3263810477374</v>
       </c>
       <c r="M26" t="n">
-        <v>411.3048488597167</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -10114,19 +10114,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>168.1637637135739</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>558.3263810477383</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>193.6733855125292</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>30.22747667133422</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>754.8364953489861</v>
+        <v>558.3263810477363</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>666.1933614933466</v>
+        <v>193.673385512529</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>477.7616215443541</v>
       </c>
       <c r="O35" t="n">
-        <v>527.2502036575838</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>220.0003280988501</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>193.6733855125293</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1160.926743942452</v>
+        <v>381.9229349963211</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>57.67283229972509</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
-        <v>248.2094118175607</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>103.526127721806</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>183.4376907582239</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1160.926743942452</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>57.67283229972509</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>338.3566696082842</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>103.526127721806</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>183.4376907582248</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>477.7616215443541</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>193.6733855125293</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>43.06579753029827</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>80.72848457753332</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.67041966593475</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>134.4647017737663</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.67041966593475</v>
       </c>
       <c r="S31" t="n">
-        <v>134.4647017737662</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>123.7942821078314</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.7942821078315</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4647017737663</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.67041966593475</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409275.7634160369</v>
+        <v>409275.7634160368</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>539481.1298497454</v>
+        <v>539481.1298497453</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>539481.1298497454</v>
+        <v>539481.1298497453</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>539481.1298497454</v>
+        <v>539481.1298497453</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>539481.1298497454</v>
+        <v>539481.1298497453</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>539481.1298497454</v>
+        <v>539481.1298497453</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904085</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904085</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
+        <v>536147.3198904087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>536147.3198904087</v>
+      </c>
+      <c r="F2" t="n">
         <v>536147.3198904084</v>
-      </c>
-      <c r="E2" t="n">
-        <v>536147.3198904088</v>
-      </c>
-      <c r="F2" t="n">
-        <v>536147.3198904087</v>
       </c>
       <c r="G2" t="n">
         <v>536147.3198904088</v>
       </c>
       <c r="H2" t="n">
-        <v>536147.3198904089</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="I2" t="n">
-        <v>536147.3198904088</v>
+        <v>536147.3198904087</v>
       </c>
       <c r="J2" t="n">
         <v>532920.167047838</v>
@@ -26346,16 +26346,16 @@
         <v>532920.1670478381</v>
       </c>
       <c r="M2" t="n">
+        <v>536147.3198904087</v>
+      </c>
+      <c r="N2" t="n">
+        <v>536147.3198904084</v>
+      </c>
+      <c r="O2" t="n">
         <v>536147.3198904085</v>
       </c>
-      <c r="N2" t="n">
-        <v>536147.3198904087</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>536147.3198904088</v>
-      </c>
-      <c r="P2" t="n">
-        <v>536147.3198904083</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
         <v>470552.341083285</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16133.41782985397</v>
+        <v>16133.41782985403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>299855.2806251332</v>
       </c>
       <c r="C4" t="n">
-        <v>299855.2806251331</v>
+        <v>299855.2806251333</v>
       </c>
       <c r="D4" t="n">
         <v>299855.2806251332</v>
@@ -26444,13 +26444,13 @@
         <v>140106.1161665457</v>
       </c>
       <c r="K4" t="n">
-        <v>140106.1161665457</v>
+        <v>140106.1161665458</v>
       </c>
       <c r="L4" t="n">
         <v>140106.1161665457</v>
       </c>
       <c r="M4" t="n">
-        <v>143615.9505433985</v>
+        <v>143615.9505433984</v>
       </c>
       <c r="N4" t="n">
         <v>143615.9505433984</v>
@@ -26459,7 +26459,7 @@
         <v>143615.9505433984</v>
       </c>
       <c r="P4" t="n">
-        <v>143615.9505433985</v>
+        <v>143615.9505433984</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>36139.55218528966</v>
       </c>
       <c r="C5" t="n">
-        <v>36139.55218528966</v>
+        <v>36139.55218528963</v>
       </c>
       <c r="D5" t="n">
         <v>36139.55218528966</v>
@@ -26484,34 +26484,34 @@
         <v>79465.96186796842</v>
       </c>
       <c r="G5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
       <c r="H5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
       <c r="I5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
       <c r="J5" t="n">
         <v>80228.88367880578</v>
       </c>
       <c r="K5" t="n">
-        <v>80228.88367880578</v>
+        <v>80228.8836788058</v>
       </c>
       <c r="L5" t="n">
-        <v>80228.88367880578</v>
+        <v>80228.88367880577</v>
       </c>
       <c r="M5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
       <c r="N5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
       <c r="O5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
       <c r="P5" t="n">
-        <v>79465.96186796844</v>
+        <v>79465.96186796842</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186306.8793136892</v>
+        <v>186306.8793136891</v>
       </c>
       <c r="C6" t="n">
-        <v>200152.4870799858</v>
+        <v>200152.4870799856</v>
       </c>
       <c r="D6" t="n">
-        <v>200152.4870799856</v>
+        <v>200152.4870799857</v>
       </c>
       <c r="E6" t="n">
-        <v>-157486.9336042431</v>
+        <v>-157486.9336042433</v>
       </c>
       <c r="F6" t="n">
-        <v>313065.4074790418</v>
+        <v>313065.4074790415</v>
       </c>
       <c r="G6" t="n">
         <v>313065.4074790419</v>
       </c>
       <c r="H6" t="n">
-        <v>313065.407479042</v>
+        <v>313065.4074790416</v>
       </c>
       <c r="I6" t="n">
-        <v>313065.407479042</v>
+        <v>313065.4074790418</v>
       </c>
       <c r="J6" t="n">
-        <v>296451.7493726325</v>
+        <v>296443.6814905261</v>
       </c>
       <c r="K6" t="n">
-        <v>312585.1672024865</v>
+        <v>312577.0993203801</v>
       </c>
       <c r="L6" t="n">
-        <v>312585.1672024866</v>
+        <v>312577.0993203802</v>
       </c>
       <c r="M6" t="n">
-        <v>11759.67880515882</v>
+        <v>11759.67880515895</v>
       </c>
       <c r="N6" t="n">
-        <v>313065.4074790418</v>
+        <v>313065.4074790415</v>
       </c>
       <c r="O6" t="n">
-        <v>313065.407479042</v>
+        <v>313065.4074790417</v>
       </c>
       <c r="P6" t="n">
-        <v>313065.4074790414</v>
+        <v>313065.4074790419</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="F2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="G2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="N2" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="O2" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="P2" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
     </row>
     <row r="3">
@@ -26792,7 +26792,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804697</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>1211.313316977617</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>61.66171526904486</v>
+        <v>61.66171526904509</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1190.966604756099</v>
+        <v>1190.9666047561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>1211.313316977617</v>
@@ -27472,10 +27472,10 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>48.14098415221586</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422299778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>127.8289581862304</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27554,7 +27554,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
         <v>46.45834668554406</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>116.333951967456</v>
@@ -27593,13 +27593,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27675,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655135</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143863</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27709,10 +27709,10 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895106</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>0.003292614422754525</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>26.43062849183907</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -27757,10 +27757,10 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>116.9285067192467</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.5101778475351</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>116.3339519674564</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098024</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27836,13 +27836,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.9911373220445</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>209.9588623764529</v>
       </c>
     </row>
     <row r="8">
@@ -27940,7 +27940,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205373</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>41.23499695247265</v>
@@ -27949,7 +27949,7 @@
         <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>88.83066674430933</v>
       </c>
     </row>
     <row r="10">
@@ -28016,19 +28016,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>149.0326012679123</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>102.1128978822671</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
         <v>46.45834668554406</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="C11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="D11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="E11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="F11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="G11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="H11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="T11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="U11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="V11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="W11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="X11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="C13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="D13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="E13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="F13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="G13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="H13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="I13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="J13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="K13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="L13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="M13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="N13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="O13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="P13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="R13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="S13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="T13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="U13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="V13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="W13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="X13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804723</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="C14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="D14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="E14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="F14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="G14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="H14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="T14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="U14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="V14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="W14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="X14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="C16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="D16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="E16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="F16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="G16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="H16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="I16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="J16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="K16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="L16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="M16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="N16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="O16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="P16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="R16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="S16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="T16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="U16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="V16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="W16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="X16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804724</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="C17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="D17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="E17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="F17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="G17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="T17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="U17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="V17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="W17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="X17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="C19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="D19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="E19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="F19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="G19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="J19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804409</v>
       </c>
       <c r="K19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="L19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="M19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="N19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="O19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="P19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="R19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="S19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="T19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="U19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="V19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="W19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="X19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="C20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="D20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="E20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="F20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="G20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="T20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="U20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="V20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="W20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="X20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="C22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="D22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="E22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="F22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="G22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="J22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="K22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="L22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="M22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="N22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="O22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="P22" t="n">
-        <v>5.640108627804693</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="R22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="S22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="T22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="U22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="V22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="W22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="X22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="C23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="D23" t="n">
-        <v>5.640108627803897</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="E23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="F23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="G23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="T23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="U23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="V23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804807</v>
       </c>
       <c r="W23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="X23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="C25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="D25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="E25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="F25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="G25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="H25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="I25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="J25" t="n">
-        <v>5.640108627804835</v>
+        <v>5.640108627804409</v>
       </c>
       <c r="K25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="L25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="M25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="N25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="O25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="P25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="R25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="S25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="T25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="U25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="V25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="W25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="X25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.640108627804705</v>
+        <v>5.640108627804707</v>
       </c>
     </row>
     <row r="26">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="C35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="D35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="E35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="F35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="G35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="H35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="T35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="U35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="V35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="W35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="X35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="C37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="D37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="E37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="F37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="G37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="H37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="I37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="J37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627803784</v>
       </c>
       <c r="K37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="L37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="M37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="N37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="O37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="P37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="R37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="S37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="T37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="U37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="V37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="W37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="X37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="C38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804523</v>
       </c>
       <c r="D38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="E38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="F38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="G38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="H38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="T38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="U38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="V38" t="n">
-        <v>5.640108627803897</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="W38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="X38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="C40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="D40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="E40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="F40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="G40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="H40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="I40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="J40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="K40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="L40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="M40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="N40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="O40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="P40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.640108627804238</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="R40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="S40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="T40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="U40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="V40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="W40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="X40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.640108627804717</v>
+        <v>5.640108627804729</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="C41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="D41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="E41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="F41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="G41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="H41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="T41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="U41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="V41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="W41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="X41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="C43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="D43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="E43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="F43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="G43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="H43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="I43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="J43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="K43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="L43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="M43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="N43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="O43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="P43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="R43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="S43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="T43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="U43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="V43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="W43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="X43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="C44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="D44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="E44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="F44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="G44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="H44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="T44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="U44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="V44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="W44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="X44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="C46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="D46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="E46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="F46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="G46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="H46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="I46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="J46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="K46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="L46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="M46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="N46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="O46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="P46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="R46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="S46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="T46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="U46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="V46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="W46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="X46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.640108627804691</v>
+        <v>5.640108627804701</v>
       </c>
     </row>
   </sheetData>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H17" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I17" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J17" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K17" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L17" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M17" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N17" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O17" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P17" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R17" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S17" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T17" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H18" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I18" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J18" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K18" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L18" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M18" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N18" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O18" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P18" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R18" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S18" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T18" t="n">
         <v>1.126280759491882</v>
@@ -32390,13 +32390,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I19" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J19" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K19" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L19" t="n">
         <v>34.82821183605498</v>
@@ -32408,19 +32408,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O19" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P19" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R19" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S19" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T19" t="n">
         <v>1.000933078326149</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H20" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I20" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J20" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K20" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L20" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M20" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N20" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O20" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P20" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R20" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S20" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T20" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H21" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I21" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J21" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K21" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L21" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M21" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N21" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O21" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P21" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R21" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S21" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T21" t="n">
         <v>1.126280759491882</v>
@@ -32627,13 +32627,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I22" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J22" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K22" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L22" t="n">
         <v>34.82821183605498</v>
@@ -32645,19 +32645,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O22" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P22" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R22" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S22" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T22" t="n">
         <v>1.000933078326149</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H23" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I23" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J23" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K23" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L23" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M23" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N23" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O23" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P23" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R23" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S23" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T23" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H24" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I24" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J24" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K24" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L24" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M24" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N24" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O24" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P24" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R24" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S24" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T24" t="n">
         <v>1.126280759491882</v>
@@ -32864,13 +32864,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I25" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J25" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K25" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L25" t="n">
         <v>34.82821183605498</v>
@@ -32882,19 +32882,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O25" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P25" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R25" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S25" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T25" t="n">
         <v>1.000933078326149</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H26" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I26" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J26" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K26" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L26" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M26" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N26" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O26" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P26" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R26" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S26" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T26" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,43 +33016,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H27" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I27" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J27" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K27" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L27" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M27" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N27" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O27" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P27" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R27" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S27" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T27" t="n">
         <v>1.126280759491882</v>
@@ -33101,13 +33101,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I28" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J28" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K28" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L28" t="n">
         <v>34.82821183605498</v>
@@ -33119,19 +33119,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O28" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P28" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R28" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S28" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T28" t="n">
         <v>1.000933078326149</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H29" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I29" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J29" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K29" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L29" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M29" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N29" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O29" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P29" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R29" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S29" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T29" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,43 +33253,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H30" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I30" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J30" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K30" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L30" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M30" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N30" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O30" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P30" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R30" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S30" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T30" t="n">
         <v>1.126280759491882</v>
@@ -33338,13 +33338,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I31" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J31" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K31" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L31" t="n">
         <v>34.82821183605498</v>
@@ -33356,19 +33356,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O31" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P31" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R31" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S31" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T31" t="n">
         <v>1.000933078326149</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H32" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I32" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J32" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K32" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L32" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M32" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N32" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O32" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P32" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R32" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S32" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T32" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,43 +33490,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H33" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I33" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J33" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K33" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L33" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M33" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N33" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O33" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P33" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R33" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S33" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T33" t="n">
         <v>1.126280759491882</v>
@@ -33575,13 +33575,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I34" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J34" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K34" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L34" t="n">
         <v>34.82821183605498</v>
@@ -33593,19 +33593,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O34" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P34" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R34" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S34" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T34" t="n">
         <v>1.000933078326149</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H35" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I35" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J35" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K35" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L35" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M35" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N35" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O35" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P35" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R35" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S35" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T35" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,43 +33727,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H36" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I36" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J36" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K36" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L36" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M36" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N36" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O36" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P36" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R36" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S36" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T36" t="n">
         <v>1.126280759491882</v>
@@ -33812,13 +33812,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I37" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J37" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K37" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L37" t="n">
         <v>34.82821183605498</v>
@@ -33830,19 +33830,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O37" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P37" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R37" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S37" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T37" t="n">
         <v>1.000933078326149</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H38" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I38" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J38" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K38" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L38" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M38" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N38" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O38" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P38" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R38" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S38" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T38" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,43 +33964,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H39" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I39" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J39" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K39" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L39" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M39" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N39" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O39" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P39" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R39" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S39" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T39" t="n">
         <v>1.126280759491882</v>
@@ -34049,13 +34049,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I40" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J40" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K40" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L40" t="n">
         <v>34.82821183605498</v>
@@ -34067,19 +34067,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O40" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P40" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R40" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S40" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T40" t="n">
         <v>1.000933078326149</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H41" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I41" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J41" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K41" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L41" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M41" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N41" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O41" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P41" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R41" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S41" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T41" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,43 +34201,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H42" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I42" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J42" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K42" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L42" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M42" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N42" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O42" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P42" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R42" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S42" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T42" t="n">
         <v>1.126280759491882</v>
@@ -34286,13 +34286,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I43" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J43" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K43" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L43" t="n">
         <v>34.82821183605498</v>
@@ -34304,19 +34304,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O43" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P43" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R43" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S43" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T43" t="n">
         <v>1.000933078326149</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5222445656186896</v>
+        <v>0.5222445656186895</v>
       </c>
       <c r="H44" t="n">
-        <v>5.348437157642406</v>
+        <v>5.348437157642405</v>
       </c>
       <c r="I44" t="n">
         <v>20.13383361601455</v>
       </c>
       <c r="J44" t="n">
-        <v>44.3248547011793</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K44" t="n">
-        <v>66.43146716381844</v>
+        <v>66.43146716381843</v>
       </c>
       <c r="L44" t="n">
-        <v>82.41410928887143</v>
+        <v>82.41410928887142</v>
       </c>
       <c r="M44" t="n">
-        <v>91.7015760826928</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N44" t="n">
-        <v>93.18540345475691</v>
+        <v>93.18540345475688</v>
       </c>
       <c r="O44" t="n">
-        <v>87.99233405538605</v>
+        <v>87.99233405538604</v>
       </c>
       <c r="P44" t="n">
-        <v>75.09942134167464</v>
+        <v>75.09942134167463</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.39653783545531</v>
+        <v>56.39653783545529</v>
       </c>
       <c r="R44" t="n">
-        <v>32.80544519504504</v>
+        <v>32.80544519504503</v>
       </c>
       <c r="S44" t="n">
         <v>11.9006480390359</v>
       </c>
       <c r="T44" t="n">
-        <v>2.286125585995815</v>
+        <v>2.286125585995814</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04177956524949516</v>
+        <v>0.04177956524949515</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,43 +34438,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2794254767836227</v>
+        <v>0.2794254767836226</v>
       </c>
       <c r="H45" t="n">
-        <v>2.698661841568146</v>
+        <v>2.698661841568145</v>
       </c>
       <c r="I45" t="n">
-        <v>9.62057014364666</v>
+        <v>9.620570143646656</v>
       </c>
       <c r="J45" t="n">
-        <v>26.3995798043685</v>
+        <v>26.39957980436849</v>
       </c>
       <c r="K45" t="n">
         <v>45.12108674887121</v>
       </c>
       <c r="L45" t="n">
-        <v>60.67086942181246</v>
+        <v>60.67086942181245</v>
       </c>
       <c r="M45" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521876</v>
       </c>
       <c r="N45" t="n">
-        <v>72.67390942014053</v>
+        <v>72.67390942014052</v>
       </c>
       <c r="O45" t="n">
-        <v>66.48242911877711</v>
+        <v>66.48242911877709</v>
       </c>
       <c r="P45" t="n">
-        <v>53.35801056230423</v>
+        <v>53.35801056230422</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.66841700136209</v>
+        <v>35.66841700136207</v>
       </c>
       <c r="R45" t="n">
         <v>17.34889056732002</v>
       </c>
       <c r="S45" t="n">
-        <v>5.190205676222111</v>
+        <v>5.19020567622211</v>
       </c>
       <c r="T45" t="n">
         <v>1.126280759491882</v>
@@ -34523,13 +34523,13 @@
         <v>2.082792660857392</v>
       </c>
       <c r="I46" t="n">
-        <v>7.044865155538089</v>
+        <v>7.044865155538087</v>
       </c>
       <c r="J46" t="n">
         <v>16.56224797902651</v>
       </c>
       <c r="K46" t="n">
-        <v>27.21686115108124</v>
+        <v>27.21686115108123</v>
       </c>
       <c r="L46" t="n">
         <v>34.82821183605498</v>
@@ -34541,19 +34541,19 @@
         <v>35.84831171800867</v>
       </c>
       <c r="O46" t="n">
-        <v>33.11171808896802</v>
+        <v>33.11171808896801</v>
       </c>
       <c r="P46" t="n">
         <v>28.33279505117251</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.61615869034502</v>
+        <v>19.61615869034501</v>
       </c>
       <c r="R46" t="n">
         <v>10.53322341574709</v>
       </c>
       <c r="S46" t="n">
-        <v>4.082529172662185</v>
+        <v>4.082529172662184</v>
       </c>
       <c r="T46" t="n">
         <v>1.000933078326149</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>41.31500304752736</v>
       </c>
       <c r="P2" t="n">
+        <v>39.64570999510201</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L4" t="n">
-        <v>39.64570999510202</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510158</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -34971,7 +34971,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.751236641671358e-12</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>13.31876740878077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -35105,16 +35105,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510158</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.64570999510202</v>
+        <v>39.645709995102</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35348,7 +35348,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35409,31 +35409,31 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J11" t="n">
-        <v>44.32485470117931</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K11" t="n">
-        <v>66.43146716381844</v>
+        <v>909.2095398488468</v>
       </c>
       <c r="L11" t="n">
-        <v>82.41410928887146</v>
+        <v>82.41410928887149</v>
       </c>
       <c r="M11" t="n">
-        <v>1252.628320025144</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N11" t="n">
-        <v>1230.287406925916</v>
+        <v>570.9470249991109</v>
       </c>
       <c r="O11" t="n">
         <v>1078.072805338524</v>
       </c>
       <c r="P11" t="n">
-        <v>544.8009005204476</v>
+        <v>911.7760625875294</v>
       </c>
       <c r="Q11" t="n">
         <v>608.4155135512074</v>
       </c>
       <c r="R11" t="n">
-        <v>32.80544519504474</v>
+        <v>203.6681368647987</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>354.2362716894314</v>
       </c>
       <c r="K12" t="n">
-        <v>357.1508137708344</v>
+        <v>45.12108674887122</v>
       </c>
       <c r="L12" t="n">
         <v>60.67086942181243</v>
       </c>
       <c r="M12" t="n">
-        <v>70.80004295521871</v>
+        <v>70.80004295521883</v>
       </c>
       <c r="N12" t="n">
         <v>72.67390942014049</v>
       </c>
       <c r="O12" t="n">
-        <v>66.48242911877719</v>
+        <v>66.48242911877708</v>
       </c>
       <c r="P12" t="n">
-        <v>53.35801056230434</v>
+        <v>247.0313960748334</v>
       </c>
       <c r="Q12" t="n">
         <v>581.8693651145697</v>
       </c>
       <c r="R12" t="n">
-        <v>17.34889056732004</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>109.6565840459119</v>
       </c>
       <c r="K13" t="n">
-        <v>310.3907622749825</v>
+        <v>310.3907622749826</v>
       </c>
       <c r="L13" t="n">
         <v>462.9025444719013</v>
       </c>
       <c r="M13" t="n">
-        <v>506.486693097848</v>
+        <v>506.4866930978482</v>
       </c>
       <c r="N13" t="n">
         <v>488.214484141414</v>
       </c>
       <c r="O13" t="n">
-        <v>462.6601592680672</v>
+        <v>462.660159268067</v>
       </c>
       <c r="P13" t="n">
         <v>384.9899682954842</v>
@@ -35646,22 +35646,22 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J14" t="n">
-        <v>483.9760541485712</v>
+        <v>44.32485470117931</v>
       </c>
       <c r="K14" t="n">
-        <v>909.2095398488468</v>
+        <v>66.43146716381844</v>
       </c>
       <c r="L14" t="n">
-        <v>82.41410928887149</v>
+        <v>82.41410928887146</v>
       </c>
       <c r="M14" t="n">
-        <v>91.70157608269278</v>
+        <v>714.7904662883084</v>
       </c>
       <c r="N14" t="n">
         <v>1230.287406925916</v>
       </c>
       <c r="O14" t="n">
-        <v>418.7324234117195</v>
+        <v>1078.072805338524</v>
       </c>
       <c r="P14" t="n">
         <v>911.7760625875294</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J15" t="n">
-        <v>354.2362716894315</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K15" t="n">
         <v>45.12108674887122</v>
@@ -35734,7 +35734,7 @@
         <v>60.67086942181243</v>
       </c>
       <c r="M15" t="n">
-        <v>70.80004295521871</v>
+        <v>70.80004295521883</v>
       </c>
       <c r="N15" t="n">
         <v>72.67390942014049</v>
@@ -35743,13 +35743,13 @@
         <v>66.48242911877708</v>
       </c>
       <c r="P15" t="n">
-        <v>881.361209026141</v>
+        <v>793.2323441880411</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.22283625901719</v>
+        <v>35.66841700136206</v>
       </c>
       <c r="R15" t="n">
-        <v>17.34889056732004</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>109.6565840459119</v>
+        <v>109.6565840459117</v>
       </c>
       <c r="K16" t="n">
         <v>310.3907622749825</v>
@@ -35813,13 +35813,13 @@
         <v>462.9025444719013</v>
       </c>
       <c r="M16" t="n">
-        <v>506.486693097848</v>
+        <v>506.4866930978477</v>
       </c>
       <c r="N16" t="n">
-        <v>488.2144841414138</v>
+        <v>488.214484141414</v>
       </c>
       <c r="O16" t="n">
-        <v>462.660159268067</v>
+        <v>462.6601592680672</v>
       </c>
       <c r="P16" t="n">
         <v>384.9899682954842</v>
@@ -35883,22 +35883,22 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J17" t="n">
-        <v>44.32485470117929</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K17" t="n">
-        <v>66.43146716381844</v>
+        <v>909.2095398488468</v>
       </c>
       <c r="L17" t="n">
-        <v>876.3656911642415</v>
+        <v>560.1757308332258</v>
       </c>
       <c r="M17" t="n">
-        <v>91.70157608269278</v>
+        <v>91.70157608269255</v>
       </c>
       <c r="N17" t="n">
-        <v>1230.287406925916</v>
+        <v>93.18540345475685</v>
       </c>
       <c r="O17" t="n">
-        <v>1078.072805338525</v>
+        <v>1078.072805338524</v>
       </c>
       <c r="P17" t="n">
         <v>911.7760625875294</v>
@@ -35907,7 +35907,7 @@
         <v>608.4155135512074</v>
       </c>
       <c r="R17" t="n">
-        <v>32.80544519504474</v>
+        <v>203.6681368647987</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.94751272996749</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J18" t="n">
-        <v>26.3995798043685</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K18" t="n">
-        <v>732.7307029815756</v>
+        <v>45.12108674887122</v>
       </c>
       <c r="L18" t="n">
         <v>60.67086942181243</v>
       </c>
       <c r="M18" t="n">
-        <v>70.80004295521883</v>
+        <v>70.80004295521871</v>
       </c>
       <c r="N18" t="n">
         <v>72.67390942014049</v>
       </c>
       <c r="O18" t="n">
-        <v>66.48242911877719</v>
+        <v>66.48242911877708</v>
       </c>
       <c r="P18" t="n">
-        <v>53.35801056230412</v>
+        <v>247.0313960748335</v>
       </c>
       <c r="Q18" t="n">
-        <v>415.7698262794574</v>
+        <v>581.8693651145697</v>
       </c>
       <c r="R18" t="n">
         <v>135.7052320767541</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6565840459119</v>
+        <v>109.6565840459116</v>
       </c>
       <c r="K19" t="n">
         <v>310.3907622749825</v>
       </c>
       <c r="L19" t="n">
-        <v>462.9025444719013</v>
+        <v>462.9025444719011</v>
       </c>
       <c r="M19" t="n">
         <v>506.486693097848</v>
@@ -36120,22 +36120,22 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J20" t="n">
-        <v>483.9760541485711</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K20" t="n">
-        <v>66.43146716381841</v>
+        <v>909.2095398488468</v>
       </c>
       <c r="L20" t="n">
-        <v>1168.333267120042</v>
+        <v>1168.333267120043</v>
       </c>
       <c r="M20" t="n">
-        <v>326.3221124809052</v>
+        <v>473.6245110790137</v>
       </c>
       <c r="N20" t="n">
         <v>93.18540345475685</v>
       </c>
       <c r="O20" t="n">
-        <v>1078.072805338524</v>
+        <v>87.99233405538598</v>
       </c>
       <c r="P20" t="n">
         <v>911.7760625875294</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J21" t="n">
-        <v>26.3995798043685</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K21" t="n">
         <v>45.12108674887122</v>
       </c>
       <c r="L21" t="n">
-        <v>60.67086942181245</v>
+        <v>60.67086942181243</v>
       </c>
       <c r="M21" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521871</v>
       </c>
       <c r="N21" t="n">
-        <v>72.67390942014055</v>
+        <v>72.67390942014049</v>
       </c>
       <c r="O21" t="n">
         <v>66.48242911877708</v>
       </c>
       <c r="P21" t="n">
-        <v>881.3612090261408</v>
+        <v>247.0313960748335</v>
       </c>
       <c r="Q21" t="n">
-        <v>420.0595281440801</v>
+        <v>581.8693651145697</v>
       </c>
       <c r="R21" t="n">
-        <v>17.34889056732004</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6565840459119</v>
+        <v>109.6565840459117</v>
       </c>
       <c r="K22" t="n">
         <v>310.3907622749825</v>
       </c>
       <c r="L22" t="n">
-        <v>462.9025444719013</v>
+        <v>462.9025444719011</v>
       </c>
       <c r="M22" t="n">
         <v>506.486693097848</v>
@@ -36293,7 +36293,7 @@
         <v>488.214484141414</v>
       </c>
       <c r="O22" t="n">
-        <v>462.6601592680672</v>
+        <v>462.660159268067</v>
       </c>
       <c r="P22" t="n">
         <v>384.9899682954842</v>
@@ -36357,25 +36357,25 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J23" t="n">
-        <v>44.32485470117929</v>
+        <v>44.32485470117928</v>
       </c>
       <c r="K23" t="n">
-        <v>909.2095398488467</v>
+        <v>66.43146716381844</v>
       </c>
       <c r="L23" t="n">
-        <v>1168.333267120043</v>
+        <v>1104.134564183398</v>
       </c>
       <c r="M23" t="n">
-        <v>646.0769066287749</v>
+        <v>1252.628320025144</v>
       </c>
       <c r="N23" t="n">
-        <v>93.18540345475685</v>
+        <v>1230.287406925916</v>
       </c>
       <c r="O23" t="n">
         <v>1078.072805338524</v>
       </c>
       <c r="P23" t="n">
-        <v>911.7760625875294</v>
+        <v>75.09942134167432</v>
       </c>
       <c r="Q23" t="n">
         <v>56.39653783545509</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J24" t="n">
-        <v>26.3995798043685</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K24" t="n">
         <v>45.12108674887122</v>
       </c>
       <c r="L24" t="n">
-        <v>60.67086942181245</v>
+        <v>60.67086942181243</v>
       </c>
       <c r="M24" t="n">
-        <v>140.7959809328424</v>
+        <v>70.80004295521871</v>
       </c>
       <c r="N24" t="n">
-        <v>72.67390942014055</v>
+        <v>72.67390942014049</v>
       </c>
       <c r="O24" t="n">
-        <v>1090.524459238274</v>
+        <v>66.48242911877708</v>
       </c>
       <c r="P24" t="n">
-        <v>53.35801056230434</v>
+        <v>247.0313960748335</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.66841700136206</v>
+        <v>581.8693651145697</v>
       </c>
       <c r="R24" t="n">
         <v>135.7052320767541</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>109.656584045912</v>
+        <v>109.6565840459116</v>
       </c>
       <c r="K25" t="n">
         <v>310.3907622749825</v>
@@ -36600,16 +36600,16 @@
         <v>909.2095398488467</v>
       </c>
       <c r="L26" t="n">
-        <v>82.41410928887149</v>
+        <v>640.7404903366089</v>
       </c>
       <c r="M26" t="n">
-        <v>503.0064249424095</v>
+        <v>91.70157608269255</v>
       </c>
       <c r="N26" t="n">
-        <v>1230.287406925916</v>
+        <v>93.18540345475685</v>
       </c>
       <c r="O26" t="n">
-        <v>87.99233405538598</v>
+        <v>1078.072805338524</v>
       </c>
       <c r="P26" t="n">
         <v>911.7760625875294</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.94751272996749</v>
+        <v>35.94751272996746</v>
       </c>
       <c r="J27" t="n">
-        <v>354.2362716894315</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K27" t="n">
-        <v>238.7944722614001</v>
+        <v>238.7944722614002</v>
       </c>
       <c r="L27" t="n">
         <v>60.67086942181243</v>
@@ -36834,19 +36834,19 @@
         <v>483.9760541485711</v>
       </c>
       <c r="K29" t="n">
-        <v>234.5952308773923</v>
+        <v>909.2095398488467</v>
       </c>
       <c r="L29" t="n">
-        <v>1168.333267120043</v>
+        <v>640.7404903366098</v>
       </c>
       <c r="M29" t="n">
-        <v>91.70157608269278</v>
+        <v>91.70157608269255</v>
       </c>
       <c r="N29" t="n">
-        <v>1230.287406925916</v>
+        <v>93.18540345475685</v>
       </c>
       <c r="O29" t="n">
-        <v>87.99233405538598</v>
+        <v>1078.072805338524</v>
       </c>
       <c r="P29" t="n">
         <v>911.7760625875294</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.94751272996749</v>
+        <v>35.94751272996746</v>
       </c>
       <c r="J30" t="n">
         <v>354.2362716894315</v>
@@ -36928,13 +36928,13 @@
         <v>66.48242911877708</v>
       </c>
       <c r="P30" t="n">
-        <v>881.3612090261407</v>
+        <v>247.0313960748334</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.66841700136206</v>
+        <v>581.8693651145697</v>
       </c>
       <c r="R30" t="n">
-        <v>47.57636723865426</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J32" t="n">
-        <v>44.32485470117929</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K32" t="n">
-        <v>66.43146716381844</v>
+        <v>909.2095398488467</v>
       </c>
       <c r="L32" t="n">
-        <v>1168.333267120043</v>
+        <v>82.41410928887149</v>
       </c>
       <c r="M32" t="n">
         <v>91.70157608269278</v>
       </c>
       <c r="N32" t="n">
-        <v>848.0218988037429</v>
+        <v>651.5117845024931</v>
       </c>
       <c r="O32" t="n">
         <v>1078.072805338524</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J33" t="n">
-        <v>26.3995798043685</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K33" t="n">
         <v>45.12108674887122</v>
       </c>
       <c r="L33" t="n">
-        <v>60.67086942181245</v>
+        <v>60.67086942181243</v>
       </c>
       <c r="M33" t="n">
-        <v>70.80004295521877</v>
+        <v>70.80004295521871</v>
       </c>
       <c r="N33" t="n">
-        <v>72.67390942014055</v>
+        <v>72.67390942014049</v>
       </c>
       <c r="O33" t="n">
         <v>66.48242911877708</v>
       </c>
       <c r="P33" t="n">
-        <v>719.5513720556509</v>
+        <v>247.0313960748332</v>
       </c>
       <c r="Q33" t="n">
         <v>581.8693651145697</v>
       </c>
       <c r="R33" t="n">
-        <v>17.34889056732004</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>304.7506536471778</v>
       </c>
       <c r="L34" t="n">
-        <v>457.2624358440964</v>
+        <v>457.2624358440965</v>
       </c>
       <c r="M34" t="n">
         <v>500.8465844700434</v>
@@ -37305,22 +37305,22 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J35" t="n">
-        <v>44.32485470117929</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K35" t="n">
-        <v>66.43146716381844</v>
+        <v>909.2095398488468</v>
       </c>
       <c r="L35" t="n">
-        <v>1168.333267120043</v>
+        <v>82.41410928887149</v>
       </c>
       <c r="M35" t="n">
         <v>91.70157608269278</v>
       </c>
       <c r="N35" t="n">
-        <v>1230.287406925915</v>
+        <v>570.9470249991109</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2425377129698</v>
+        <v>1078.072805338524</v>
       </c>
       <c r="P35" t="n">
         <v>911.7760625875294</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J36" t="n">
         <v>354.2362716894314</v>
       </c>
       <c r="K36" t="n">
-        <v>265.1214148477213</v>
+        <v>45.12108674887122</v>
       </c>
       <c r="L36" t="n">
         <v>60.67086942181243</v>
@@ -37402,7 +37402,7 @@
         <v>66.48242911877708</v>
       </c>
       <c r="P36" t="n">
-        <v>53.35801056230423</v>
+        <v>247.0313960748335</v>
       </c>
       <c r="Q36" t="n">
         <v>581.8693651145697</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6565840459119</v>
+        <v>109.6565840459109</v>
       </c>
       <c r="K37" t="n">
-        <v>310.3907622749826</v>
+        <v>310.3907622749825</v>
       </c>
       <c r="L37" t="n">
-        <v>462.9025444719014</v>
+        <v>462.9025444719013</v>
       </c>
       <c r="M37" t="n">
         <v>506.486693097848</v>
@@ -37478,7 +37478,7 @@
         <v>488.214484141414</v>
       </c>
       <c r="O37" t="n">
-        <v>462.660159268067</v>
+        <v>462.6601592680672</v>
       </c>
       <c r="P37" t="n">
         <v>384.9899682954842</v>
@@ -37542,7 +37542,7 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J38" t="n">
-        <v>483.9760541485711</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K38" t="n">
         <v>909.2095398488468</v>
@@ -37551,7 +37551,7 @@
         <v>1168.333267120043</v>
       </c>
       <c r="M38" t="n">
-        <v>1252.628320025145</v>
+        <v>473.6245110790137</v>
       </c>
       <c r="N38" t="n">
         <v>93.18540345475685</v>
@@ -37560,7 +37560,7 @@
         <v>87.99233405538598</v>
       </c>
       <c r="P38" t="n">
-        <v>132.7722536413994</v>
+        <v>911.7760625875294</v>
       </c>
       <c r="Q38" t="n">
         <v>608.4155135512074</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J39" t="n">
         <v>26.3995798043685</v>
       </c>
       <c r="K39" t="n">
-        <v>45.12108674887122</v>
+        <v>45.12108674887119</v>
       </c>
       <c r="L39" t="n">
         <v>1024.855767210806</v>
       </c>
       <c r="M39" t="n">
-        <v>319.0094547727795</v>
+        <v>70.80004295521871</v>
       </c>
       <c r="N39" t="n">
         <v>72.67390942014049</v>
@@ -37639,13 +37639,13 @@
         <v>66.48242911877719</v>
       </c>
       <c r="P39" t="n">
-        <v>53.35801056230434</v>
+        <v>53.35801056230412</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.66841700136206</v>
+        <v>139.1945447231681</v>
       </c>
       <c r="R39" t="n">
-        <v>17.34889056732004</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>109.6565840459119</v>
       </c>
       <c r="K40" t="n">
-        <v>310.3907622749825</v>
+        <v>310.3907622749826</v>
       </c>
       <c r="L40" t="n">
         <v>462.9025444719013</v>
       </c>
       <c r="M40" t="n">
-        <v>506.486693097848</v>
+        <v>506.4866930978479</v>
       </c>
       <c r="N40" t="n">
         <v>488.214484141414</v>
@@ -37721,7 +37721,7 @@
         <v>384.9899682954842</v>
       </c>
       <c r="Q40" t="n">
-        <v>195.1479591003031</v>
+        <v>195.1479591003035</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J41" t="n">
-        <v>483.9760541485711</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K41" t="n">
-        <v>909.2095398488468</v>
+        <v>249.8691579220423</v>
       </c>
       <c r="L41" t="n">
-        <v>1168.333267120043</v>
+        <v>82.41410928887137</v>
       </c>
       <c r="M41" t="n">
-        <v>1252.628320025145</v>
+        <v>91.70157608269278</v>
       </c>
       <c r="N41" t="n">
-        <v>93.18540345475685</v>
+        <v>1230.287406925916</v>
       </c>
       <c r="O41" t="n">
-        <v>87.99233405538598</v>
+        <v>1078.072805338524</v>
       </c>
       <c r="P41" t="n">
-        <v>132.7722536413994</v>
+        <v>911.7760625875294</v>
       </c>
       <c r="Q41" t="n">
         <v>608.4155135512074</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.62057014364666</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J42" t="n">
-        <v>354.2362716894314</v>
+        <v>26.3995798043685</v>
       </c>
       <c r="K42" t="n">
-        <v>45.12108674887122</v>
+        <v>45.12108674887119</v>
       </c>
       <c r="L42" t="n">
-        <v>60.67086942181243</v>
+        <v>1024.855767210806</v>
       </c>
       <c r="M42" t="n">
         <v>70.80004295521871</v>
@@ -37873,16 +37873,16 @@
         <v>72.67390942014049</v>
       </c>
       <c r="O42" t="n">
-        <v>66.48242911877708</v>
+        <v>66.48242911877719</v>
       </c>
       <c r="P42" t="n">
-        <v>391.7146801705884</v>
+        <v>53.35801056230412</v>
       </c>
       <c r="Q42" t="n">
-        <v>581.8693651145697</v>
+        <v>139.1945447231681</v>
       </c>
       <c r="R42" t="n">
-        <v>17.34889056732004</v>
+        <v>135.7052320767541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>109.6565840459119</v>
       </c>
       <c r="K43" t="n">
-        <v>310.3907622749825</v>
+        <v>310.3907622749826</v>
       </c>
       <c r="L43" t="n">
-        <v>462.9025444719013</v>
+        <v>462.9025444719011</v>
       </c>
       <c r="M43" t="n">
         <v>506.486693097848</v>
@@ -37952,7 +37952,7 @@
         <v>488.214484141414</v>
       </c>
       <c r="O43" t="n">
-        <v>462.6601592680672</v>
+        <v>462.6601592680668</v>
       </c>
       <c r="P43" t="n">
         <v>384.9899682954842</v>
@@ -38016,19 +38016,19 @@
         <v>19.72121213688315</v>
       </c>
       <c r="J44" t="n">
-        <v>483.9760541485711</v>
+        <v>483.9760541485712</v>
       </c>
       <c r="K44" t="n">
-        <v>66.43146716381841</v>
+        <v>909.2095398488468</v>
       </c>
       <c r="L44" t="n">
-        <v>265.8518000470962</v>
+        <v>82.41410928887149</v>
       </c>
       <c r="M44" t="n">
         <v>91.70157608269278</v>
       </c>
       <c r="N44" t="n">
-        <v>1230.287406925916</v>
+        <v>570.9470249991109</v>
       </c>
       <c r="O44" t="n">
         <v>1078.072805338524</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.94751272996749</v>
+        <v>35.94751272996747</v>
       </c>
       <c r="J45" t="n">
-        <v>354.2362716894315</v>
+        <v>354.2362716894314</v>
       </c>
       <c r="K45" t="n">
-        <v>238.7944722614005</v>
+        <v>45.12108674887122</v>
       </c>
       <c r="L45" t="n">
         <v>60.67086942181243</v>
@@ -38113,7 +38113,7 @@
         <v>66.48242911877708</v>
       </c>
       <c r="P45" t="n">
-        <v>53.35801056230423</v>
+        <v>247.0313960748335</v>
       </c>
       <c r="Q45" t="n">
         <v>581.8693651145697</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6565840459117</v>
+        <v>109.6565840459119</v>
       </c>
       <c r="K46" t="n">
         <v>310.3907622749825</v>
@@ -38183,7 +38183,7 @@
         <v>462.9025444719011</v>
       </c>
       <c r="M46" t="n">
-        <v>506.486693097848</v>
+        <v>506.4866930978479</v>
       </c>
       <c r="N46" t="n">
         <v>488.214484141414</v>
